--- a/household-count/data/household-count-by-re.xlsx
+++ b/household-count/data/household-count-by-re.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">DATA_YEAR</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">Total People of Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Single-race</t>
   </si>
   <si>
     <t xml:space="preserve">King</t>
@@ -1140,31 +1143,31 @@
         <v>2023</v>
       </c>
       <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
         <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>1869</v>
+        <v>1421507</v>
       </c>
       <c r="F18" t="n">
-        <v>3157</v>
+        <v>1693617</v>
       </c>
       <c r="G18" t="n">
-        <v>1663</v>
+        <v>1393583</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0020152094944509</v>
+        <v>0.839666686750048</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00340259597487015</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0017923715889164</v>
+        <v>0.822844244005581</v>
       </c>
       <c r="K18" t="s">
         <v>16</v>
@@ -1181,31 +1184,31 @@
         <v>2023</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="n">
-        <v>154892</v>
+        <v>1869</v>
       </c>
       <c r="F19" t="n">
-        <v>173743</v>
+        <v>3157</v>
       </c>
       <c r="G19" t="n">
-        <v>153280</v>
+        <v>1663</v>
       </c>
       <c r="H19" t="n">
-        <v>0.167009004288116</v>
+        <v>0.0020152094944509</v>
       </c>
       <c r="I19" t="n">
-        <v>0.187259180380698</v>
+        <v>0.00340259597487015</v>
       </c>
       <c r="J19" t="n">
-        <v>0.165204279704814</v>
+        <v>0.0017923715889164</v>
       </c>
       <c r="K19" t="s">
         <v>16</v>
@@ -1222,31 +1225,31 @@
         <v>2023</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>48486</v>
+        <v>154892</v>
       </c>
       <c r="F20" t="n">
-        <v>54290</v>
+        <v>173743</v>
       </c>
       <c r="G20" t="n">
-        <v>47498</v>
+        <v>153280</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0522789981529942</v>
+        <v>0.167009004288116</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0585134417091228</v>
+        <v>0.187259180380698</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0511930641794053</v>
+        <v>0.165204279704814</v>
       </c>
       <c r="K20" t="s">
         <v>16</v>
@@ -1263,31 +1266,31 @@
         <v>2023</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>54181</v>
+        <v>48486</v>
       </c>
       <c r="F21" t="n">
-        <v>74084</v>
+        <v>54290</v>
       </c>
       <c r="G21" t="n">
-        <v>53533</v>
+        <v>47498</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0584195107644965</v>
+        <v>0.0522789981529942</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0798472981318595</v>
+        <v>0.0585134417091228</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0576975515751422</v>
+        <v>0.0511930641794053</v>
       </c>
       <c r="K21" t="s">
         <v>16</v>
@@ -1304,32 +1307,38 @@
         <v>2023</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22" t="n">
-        <v>13533</v>
-      </c>
-      <c r="F22"/>
+        <v>54181</v>
+      </c>
+      <c r="F22" t="n">
+        <v>74084</v>
+      </c>
       <c r="G22" t="n">
-        <v>15056</v>
+        <v>53533</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0145916693891942</v>
-      </c>
-      <c r="I22"/>
+        <v>0.0584195107644965</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0798472981318595</v>
+      </c>
       <c r="J22" t="n">
-        <v>0.0162272679751806</v>
+        <v>0.0576975515751422</v>
       </c>
       <c r="K22" t="s">
         <v>16</v>
       </c>
-      <c r="L22"/>
+      <c r="L22" t="s">
+        <v>16</v>
+      </c>
       <c r="M22" t="s">
         <v>16</v>
       </c>
@@ -1339,27 +1348,27 @@
         <v>2023</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>39273</v>
+        <v>13533</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>40244</v>
+        <v>15056</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0423452768729642</v>
+        <v>0.0145916693891942</v>
       </c>
       <c r="I23"/>
       <c r="J23" t="n">
-        <v>0.0433747457753166</v>
+        <v>0.0162272679751806</v>
       </c>
       <c r="K23" t="s">
         <v>16</v>
@@ -1374,27 +1383,27 @@
         <v>2023</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="n">
-        <v>77201</v>
+        <v>39273</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>84635</v>
+        <v>40244</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0832403361054594</v>
+        <v>0.0423452768729642</v>
       </c>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>0.0912191036848703</v>
+        <v>0.0433747457753166</v>
       </c>
       <c r="K24" t="s">
         <v>16</v>
@@ -1409,27 +1418,27 @@
         <v>2023</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="n">
-        <v>11582</v>
+        <v>77201</v>
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>13709</v>
+        <v>84635</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0124880451389675</v>
+        <v>0.0832403361054594</v>
       </c>
       <c r="I25"/>
       <c r="J25" t="n">
-        <v>0.0147754793219813</v>
+        <v>0.0912191036848703</v>
       </c>
       <c r="K25" t="s">
         <v>16</v>
@@ -1444,38 +1453,32 @@
         <v>2023</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="n">
-        <v>3752</v>
-      </c>
-      <c r="F26" t="n">
-        <v>5077</v>
-      </c>
+        <v>11582</v>
+      </c>
+      <c r="F26"/>
       <c r="G26" t="n">
-        <v>3477</v>
+        <v>13709</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00404551419110742</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.00547196064758181</v>
-      </c>
+        <v>0.0124880451389675</v>
+      </c>
+      <c r="I26"/>
       <c r="J26" t="n">
-        <v>0.00374749008698876</v>
+        <v>0.0147754793219813</v>
       </c>
       <c r="K26" t="s">
         <v>16</v>
       </c>
-      <c r="L26" t="s">
-        <v>16</v>
-      </c>
+      <c r="L26"/>
       <c r="M26" t="s">
         <v>16</v>
       </c>
@@ -1485,31 +1488,31 @@
         <v>2023</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>3620</v>
+        <v>3752</v>
       </c>
       <c r="F27" t="n">
-        <v>4479</v>
+        <v>5077</v>
       </c>
       <c r="G27" t="n">
-        <v>3591</v>
+        <v>3477</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00390318799888295</v>
+        <v>0.00404551419110742</v>
       </c>
       <c r="I27" t="n">
-        <v>0.00482743977556016</v>
+        <v>0.00547196064758181</v>
       </c>
       <c r="J27" t="n">
-        <v>0.00387035861443102</v>
+        <v>0.00374749008698876</v>
       </c>
       <c r="K27" t="s">
         <v>16</v>
@@ -1526,31 +1529,31 @@
         <v>2023</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="n">
-        <v>28192</v>
+        <v>3620</v>
       </c>
       <c r="F28" t="n">
-        <v>49477</v>
+        <v>4479</v>
       </c>
       <c r="G28" t="n">
-        <v>27156</v>
+        <v>3591</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0303974243272122</v>
+        <v>0.00390318799888295</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0533260187040388</v>
+        <v>0.00482743977556016</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0292685765896655</v>
+        <v>0.00387035861443102</v>
       </c>
       <c r="K28" t="s">
         <v>16</v>
@@ -1567,31 +1570,31 @@
         <v>2023</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>490866</v>
+        <v>28192</v>
       </c>
       <c r="F29" t="n">
-        <v>563514</v>
+        <v>49477</v>
       </c>
       <c r="G29" t="n">
-        <v>483979</v>
+        <v>27156</v>
       </c>
       <c r="H29" t="n">
-        <v>0.529265823276155</v>
+        <v>0.0303974243272122</v>
       </c>
       <c r="I29" t="n">
-        <v>0.607352064676268</v>
+        <v>0.0533260187040388</v>
       </c>
       <c r="J29" t="n">
-        <v>0.521629710903288</v>
+        <v>0.0292685765896655</v>
       </c>
       <c r="K29" t="s">
         <v>16</v>
@@ -1608,31 +1611,31 @@
         <v>2023</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>927447</v>
+        <v>490866</v>
       </c>
       <c r="F30" t="n">
-        <v>927821</v>
+        <v>563514</v>
       </c>
       <c r="G30" t="n">
-        <v>927821</v>
+        <v>483979</v>
       </c>
       <c r="H30" t="n">
-        <v>0.547831526419688</v>
+        <v>0.529265823276155</v>
       </c>
       <c r="I30" t="n">
-        <v>0.547834014420025</v>
+        <v>0.607352064676268</v>
       </c>
       <c r="J30" t="n">
-        <v>0.547834014420025</v>
+        <v>0.521629710903288</v>
       </c>
       <c r="K30" t="s">
         <v>16</v>
@@ -1649,32 +1652,38 @@
         <v>2023</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="n">
-        <v>141589</v>
-      </c>
-      <c r="F31"/>
+        <v>927447</v>
+      </c>
+      <c r="F31" t="n">
+        <v>927821</v>
+      </c>
       <c r="G31" t="n">
-        <v>153644</v>
+        <v>927821</v>
       </c>
       <c r="H31" t="n">
-        <v>0.152665327506585</v>
-      </c>
-      <c r="I31"/>
+        <v>0.547831526419688</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.547834014420025</v>
+      </c>
       <c r="J31" t="n">
-        <v>0.165596596757349</v>
+        <v>0.547834014420025</v>
       </c>
       <c r="K31" t="s">
         <v>16</v>
       </c>
-      <c r="L31"/>
+      <c r="L31" t="s">
+        <v>16</v>
+      </c>
       <c r="M31" t="s">
         <v>16</v>
       </c>
@@ -1684,38 +1693,32 @@
         <v>2023</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>169781</v>
-      </c>
-      <c r="F32" t="n">
-        <v>49477</v>
-      </c>
+        <v>141589</v>
+      </c>
+      <c r="F32"/>
       <c r="G32" t="n">
-        <v>180800</v>
+        <v>153644</v>
       </c>
       <c r="H32" t="n">
-        <v>0.183062751833797</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.0533260187040388</v>
-      </c>
+        <v>0.152665327506585</v>
+      </c>
+      <c r="I32"/>
       <c r="J32" t="n">
-        <v>0.194865173347014</v>
+        <v>0.165596596757349</v>
       </c>
       <c r="K32" t="s">
         <v>16</v>
       </c>
-      <c r="L32" t="s">
-        <v>16</v>
-      </c>
+      <c r="L32"/>
       <c r="M32" t="s">
         <v>16</v>
       </c>
@@ -1725,31 +1728,31 @@
         <v>2023</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>436581</v>
+        <v>169781</v>
       </c>
       <c r="F33" t="n">
-        <v>364307</v>
+        <v>49477</v>
       </c>
       <c r="G33" t="n">
-        <v>443842</v>
+        <v>180800</v>
       </c>
       <c r="H33" t="n">
-        <v>0.47054442613392</v>
+        <v>0.183062751833797</v>
       </c>
       <c r="I33" t="n">
-        <v>0.392647935323732</v>
+        <v>0.0533260187040388</v>
       </c>
       <c r="J33" t="n">
-        <v>0.478370289096712</v>
+        <v>0.194865173347014</v>
       </c>
       <c r="K33" t="s">
         <v>16</v>
@@ -1769,37 +1772,37 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="n">
-        <v>614</v>
+        <v>436581</v>
       </c>
       <c r="F34" t="n">
-        <v>932</v>
+        <v>364307</v>
       </c>
       <c r="G34" t="n">
-        <v>601</v>
+        <v>443842</v>
       </c>
       <c r="H34" t="n">
-        <v>0.00572526201932043</v>
+        <v>0.47054442613392</v>
       </c>
       <c r="I34" t="n">
-        <v>0.00868884248210024</v>
+        <v>0.392647935323732</v>
       </c>
       <c r="J34" t="n">
-        <v>0.00560299821002387</v>
+        <v>0.478370289096712</v>
       </c>
       <c r="K34" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="L34" t="s">
         <v>16</v>
       </c>
       <c r="M34" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -1810,28 +1813,28 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>3104</v>
+        <v>785858</v>
       </c>
       <c r="F35" t="n">
-        <v>4223</v>
+        <v>927821</v>
       </c>
       <c r="G35" t="n">
-        <v>2998</v>
+        <v>774177</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0289433441497893</v>
+        <v>0.847334672493415</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0393701521479714</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.02794973150358</v>
+        <v>0.834403403242651</v>
       </c>
       <c r="K35" t="s">
         <v>16</v>
@@ -1848,40 +1851,40 @@
         <v>2023</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>1586</v>
+        <v>614</v>
       </c>
       <c r="F36" t="n">
-        <v>2551</v>
+        <v>932</v>
       </c>
       <c r="G36" t="n">
-        <v>1560</v>
+        <v>601</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0147887061280818</v>
+        <v>0.00572526201932043</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0237824433174224</v>
+        <v>0.00868884248210024</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0145435560859189</v>
+        <v>0.00560299821002387</v>
       </c>
       <c r="K36" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
       </c>
       <c r="M36" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
@@ -1889,31 +1892,31 @@
         <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>3936</v>
+        <v>3104</v>
       </c>
       <c r="F37" t="n">
-        <v>7211</v>
+        <v>4223</v>
       </c>
       <c r="G37" t="n">
-        <v>3903</v>
+        <v>2998</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0367013539218977</v>
+        <v>0.0289433441497893</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0672266557279236</v>
+        <v>0.0393701521479714</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0363868585918854</v>
+        <v>0.02794973150358</v>
       </c>
       <c r="K37" t="s">
         <v>16</v>
@@ -1930,34 +1933,40 @@
         <v>2023</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38" t="n">
-        <v>827</v>
-      </c>
-      <c r="F38"/>
+        <v>1586</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2551</v>
+      </c>
       <c r="G38" t="n">
-        <v>955</v>
+        <v>1560</v>
       </c>
       <c r="H38" t="n">
-        <v>0.007711387117228</v>
-      </c>
-      <c r="I38"/>
+        <v>0.0147887061280818</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.0237824433174224</v>
+      </c>
       <c r="J38" t="n">
-        <v>0.00890326670644391</v>
+        <v>0.0145435560859189</v>
       </c>
       <c r="K38" t="s">
-        <v>34</v>
-      </c>
-      <c r="L38"/>
+        <v>16</v>
+      </c>
+      <c r="L38" t="s">
+        <v>16</v>
+      </c>
       <c r="M38" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -1965,32 +1974,38 @@
         <v>2023</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>3555</v>
-      </c>
-      <c r="F39"/>
+        <v>3936</v>
+      </c>
+      <c r="F39" t="n">
+        <v>7211</v>
+      </c>
       <c r="G39" t="n">
-        <v>3614</v>
+        <v>3903</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0331487076200067</v>
-      </c>
-      <c r="I39"/>
+        <v>0.0367013539218977</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0672266557279236</v>
+      </c>
       <c r="J39" t="n">
-        <v>0.0336925715990453</v>
+        <v>0.0363868585918854</v>
       </c>
       <c r="K39" t="s">
         <v>16</v>
       </c>
-      <c r="L39"/>
+      <c r="L39" t="s">
+        <v>16</v>
+      </c>
       <c r="M39" t="s">
         <v>16</v>
       </c>
@@ -2000,34 +2015,34 @@
         <v>2023</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>12497</v>
+        <v>827</v>
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>14359</v>
+        <v>955</v>
       </c>
       <c r="H40" t="n">
-        <v>0.116528663608221</v>
+        <v>0.007711387117228</v>
       </c>
       <c r="I40"/>
       <c r="J40" t="n">
-        <v>0.133865975536993</v>
+        <v>0.00890326670644391</v>
       </c>
       <c r="K40" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L40"/>
       <c r="M40" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
@@ -2035,27 +2050,27 @@
         <v>2023</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>1732</v>
+        <v>3555</v>
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>1865</v>
+        <v>3614</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0161500876505912</v>
+        <v>0.0331487076200067</v>
       </c>
       <c r="I41"/>
       <c r="J41" t="n">
-        <v>0.0173870077565632</v>
+        <v>0.0336925715990453</v>
       </c>
       <c r="K41" t="s">
         <v>16</v>
@@ -2070,40 +2085,34 @@
         <v>2023</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>322</v>
-      </c>
-      <c r="F42" t="n">
-        <v>763</v>
-      </c>
+        <v>12497</v>
+      </c>
+      <c r="F42"/>
       <c r="G42" t="n">
-        <v>322</v>
+        <v>14359</v>
       </c>
       <c r="H42" t="n">
-        <v>0.00300249897430159</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.00711329057279236</v>
-      </c>
+        <v>0.116528663608221</v>
+      </c>
+      <c r="I42"/>
       <c r="J42" t="n">
-        <v>0.00300193914081146</v>
+        <v>0.133865975536993</v>
       </c>
       <c r="K42" t="s">
-        <v>34</v>
-      </c>
-      <c r="L42" t="s">
-        <v>16</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L42"/>
       <c r="M42" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -2111,40 +2120,34 @@
         <v>2023</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>632</v>
-      </c>
-      <c r="F43" t="n">
-        <v>733</v>
-      </c>
+        <v>1732</v>
+      </c>
+      <c r="F43"/>
       <c r="G43" t="n">
-        <v>632</v>
+        <v>1865</v>
       </c>
       <c r="H43" t="n">
-        <v>0.00589310357689008</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.00683360680190931</v>
-      </c>
+        <v>0.0161500876505912</v>
+      </c>
+      <c r="I43"/>
       <c r="J43" t="n">
-        <v>0.00589200477326969</v>
+        <v>0.0173870077565632</v>
       </c>
       <c r="K43" t="s">
-        <v>34</v>
-      </c>
-      <c r="L43" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L43"/>
       <c r="M43" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -2152,40 +2155,40 @@
         <v>2023</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>3106</v>
+        <v>322</v>
       </c>
       <c r="F44" t="n">
-        <v>5753</v>
+        <v>763</v>
       </c>
       <c r="G44" t="n">
-        <v>2967</v>
+        <v>322</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0289619932117414</v>
+        <v>0.00300249897430159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0536340244630072</v>
+        <v>0.00711329057279236</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0276607249403341</v>
+        <v>0.00300193914081146</v>
       </c>
       <c r="K44" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L44" t="s">
         <v>16</v>
       </c>
       <c r="M44" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45">
@@ -2193,40 +2196,40 @@
         <v>2023</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
       <c r="E45" t="n">
-        <v>75333</v>
+        <v>632</v>
       </c>
       <c r="F45" t="n">
-        <v>85098</v>
+        <v>733</v>
       </c>
       <c r="G45" t="n">
-        <v>73488</v>
+        <v>632</v>
       </c>
       <c r="H45" t="n">
-        <v>0.702444892021931</v>
+        <v>0.00589310357689008</v>
       </c>
       <c r="I45" t="n">
-        <v>0.793350984486873</v>
+        <v>0.00683360680190931</v>
       </c>
       <c r="J45" t="n">
-        <v>0.685113365155131</v>
+        <v>0.00589200477326969</v>
       </c>
       <c r="K45" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L45" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M45" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46">
@@ -2234,31 +2237,31 @@
         <v>2023</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>107244</v>
+        <v>3106</v>
       </c>
       <c r="F46" t="n">
-        <v>107264</v>
+        <v>5753</v>
       </c>
       <c r="G46" t="n">
-        <v>107264</v>
+        <v>2967</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0633477106717182</v>
+        <v>0.0289619932117414</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0633342721524406</v>
+        <v>0.0536340244630072</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0633342721524406</v>
+        <v>0.0276607249403341</v>
       </c>
       <c r="K46" t="s">
         <v>16</v>
@@ -2275,32 +2278,38 @@
         <v>2023</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>18611</v>
-      </c>
-      <c r="F47"/>
+        <v>75333</v>
+      </c>
+      <c r="F47" t="n">
+        <v>85098</v>
+      </c>
       <c r="G47" t="n">
-        <v>20793</v>
+        <v>73488</v>
       </c>
       <c r="H47" t="n">
-        <v>0.173538845996046</v>
-      </c>
-      <c r="I47"/>
+        <v>0.702444892021931</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.793350984486873</v>
+      </c>
       <c r="J47" t="n">
-        <v>0.193848821599045</v>
+        <v>0.685113365155131</v>
       </c>
       <c r="K47" t="s">
         <v>16</v>
       </c>
-      <c r="L47"/>
+      <c r="L47" t="s">
+        <v>16</v>
+      </c>
       <c r="M47" t="s">
         <v>16</v>
       </c>
@@ -2310,31 +2319,31 @@
         <v>2023</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48" t="n">
-        <v>21717</v>
+        <v>107244</v>
       </c>
       <c r="F48" t="n">
-        <v>5753</v>
+        <v>107264</v>
       </c>
       <c r="G48" t="n">
-        <v>23760</v>
+        <v>107264</v>
       </c>
       <c r="H48" t="n">
-        <v>0.202500839207788</v>
+        <v>0.0633477106717182</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0536340244630072</v>
+        <v>0.0633342721524406</v>
       </c>
       <c r="J48" t="n">
-        <v>0.221509546539379</v>
+        <v>0.0633342721524406</v>
       </c>
       <c r="K48" t="s">
         <v>16</v>
@@ -2351,38 +2360,32 @@
         <v>2023</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49" t="n">
-        <v>31911</v>
-      </c>
-      <c r="F49" t="n">
-        <v>22166</v>
-      </c>
+        <v>18611</v>
+      </c>
+      <c r="F49"/>
       <c r="G49" t="n">
-        <v>33776</v>
+        <v>20793</v>
       </c>
       <c r="H49" t="n">
-        <v>0.297499627088305</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.206649015513127</v>
-      </c>
+        <v>0.173538845996046</v>
+      </c>
+      <c r="I49"/>
       <c r="J49" t="n">
-        <v>0.314886634844869</v>
+        <v>0.193848821599045</v>
       </c>
       <c r="K49" t="s">
         <v>16</v>
       </c>
-      <c r="L49" t="s">
-        <v>16</v>
-      </c>
+      <c r="L49"/>
       <c r="M49" t="s">
         <v>16</v>
       </c>
@@ -2392,31 +2395,31 @@
         <v>2023</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>1402</v>
+        <v>21717</v>
       </c>
       <c r="F50" t="n">
-        <v>2415</v>
+        <v>5753</v>
       </c>
       <c r="G50" t="n">
-        <v>1350</v>
+        <v>23760</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0040455105509339</v>
+        <v>0.202500839207788</v>
       </c>
       <c r="I50" t="n">
-        <v>0.00696557592189325</v>
+        <v>0.0536340244630072</v>
       </c>
       <c r="J50" t="n">
-        <v>0.00389380020478505</v>
+        <v>0.221509546539379</v>
       </c>
       <c r="K50" t="s">
         <v>16</v>
@@ -2433,31 +2436,31 @@
         <v>2023</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>16075</v>
+        <v>31911</v>
       </c>
       <c r="F51" t="n">
-        <v>20777</v>
+        <v>22166</v>
       </c>
       <c r="G51" t="n">
-        <v>15419</v>
+        <v>33776</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0463848659816423</v>
+        <v>0.297499627088305</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0599270272998659</v>
+        <v>0.206649015513127</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0444729669315412</v>
+        <v>0.314886634844869</v>
       </c>
       <c r="K51" t="s">
         <v>16</v>
@@ -2474,31 +2477,31 @@
         <v>2023</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
       </c>
       <c r="E52" t="n">
-        <v>18204</v>
+        <v>88633</v>
       </c>
       <c r="F52" t="n">
-        <v>22812</v>
+        <v>107264</v>
       </c>
       <c r="G52" t="n">
-        <v>17571</v>
+        <v>86471</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0525281555415127</v>
+        <v>0.826461154003954</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0657965705715233</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0506799728876134</v>
+        <v>0.806151178400955</v>
       </c>
       <c r="K52" t="s">
         <v>16</v>
@@ -2515,31 +2518,31 @@
         <v>2023</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
       </c>
       <c r="E53" t="n">
-        <v>21709</v>
+        <v>1402</v>
       </c>
       <c r="F53" t="n">
-        <v>31649</v>
+        <v>2415</v>
       </c>
       <c r="G53" t="n">
-        <v>21365</v>
+        <v>1350</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0626419319188474</v>
+        <v>0.0040455105509339</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0912850982824015</v>
+        <v>0.00696557592189325</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0616229936112834</v>
+        <v>0.00389380020478505</v>
       </c>
       <c r="K53" t="s">
         <v>16</v>
@@ -2556,32 +2559,38 @@
         <v>2023</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>5224</v>
-      </c>
-      <c r="F54"/>
+        <v>16075</v>
+      </c>
+      <c r="F54" t="n">
+        <v>20777</v>
+      </c>
       <c r="G54" t="n">
-        <v>5811</v>
+        <v>15419</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0150739993709548</v>
-      </c>
-      <c r="I54"/>
+        <v>0.0463848659816423</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.0599270272998659</v>
+      </c>
       <c r="J54" t="n">
-        <v>0.0167606466592636</v>
+        <v>0.0444729669315412</v>
       </c>
       <c r="K54" t="s">
         <v>16</v>
       </c>
-      <c r="L54"/>
+      <c r="L54" t="s">
+        <v>16</v>
+      </c>
       <c r="M54" t="s">
         <v>16</v>
       </c>
@@ -2591,32 +2600,38 @@
         <v>2023</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>9704</v>
-      </c>
-      <c r="F55"/>
+        <v>18204</v>
+      </c>
+      <c r="F55" t="n">
+        <v>22812</v>
+      </c>
       <c r="G55" t="n">
-        <v>10102</v>
+        <v>17571</v>
       </c>
       <c r="H55" t="n">
-        <v>0.028001165753397</v>
-      </c>
-      <c r="I55"/>
+        <v>0.0525281555415127</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0657965705715233</v>
+      </c>
       <c r="J55" t="n">
-        <v>0.0291371627175841</v>
+        <v>0.0506799728876134</v>
       </c>
       <c r="K55" t="s">
         <v>16</v>
       </c>
-      <c r="L55"/>
+      <c r="L55" t="s">
+        <v>16</v>
+      </c>
       <c r="M55" t="s">
         <v>16</v>
       </c>
@@ -2626,32 +2641,38 @@
         <v>2023</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
         <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>43006</v>
-      </c>
-      <c r="F56"/>
+        <v>21709</v>
+      </c>
+      <c r="F56" t="n">
+        <v>31649</v>
+      </c>
       <c r="G56" t="n">
-        <v>48904</v>
+        <v>21365</v>
       </c>
       <c r="H56" t="n">
-        <v>0.124095026215024</v>
-      </c>
-      <c r="I56"/>
+        <v>0.0626419319188474</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0912850982824015</v>
+      </c>
       <c r="J56" t="n">
-        <v>0.14105363349245</v>
+        <v>0.0616229936112834</v>
       </c>
       <c r="K56" t="s">
         <v>16</v>
       </c>
-      <c r="L56"/>
+      <c r="L56" t="s">
+        <v>16</v>
+      </c>
       <c r="M56" t="s">
         <v>16</v>
       </c>
@@ -2661,27 +2682,27 @@
         <v>2023</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
       </c>
       <c r="E57" t="n">
-        <v>7173</v>
+        <v>5224</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>8729</v>
+        <v>5811</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0206978938529593</v>
+        <v>0.0150739993709548</v>
       </c>
       <c r="I57"/>
       <c r="J57" t="n">
-        <v>0.0251770236944953</v>
+        <v>0.0167606466592636</v>
       </c>
       <c r="K57" t="s">
         <v>16</v>
@@ -2696,38 +2717,32 @@
         <v>2023</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>2838</v>
-      </c>
-      <c r="F58" t="n">
-        <v>3668</v>
-      </c>
+        <v>9704</v>
+      </c>
+      <c r="F58"/>
       <c r="G58" t="n">
-        <v>2765</v>
+        <v>10102</v>
       </c>
       <c r="H58" t="n">
-        <v>0.00818912906102027</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.0105795993712234</v>
-      </c>
+        <v>0.028001165753397</v>
+      </c>
+      <c r="I58"/>
       <c r="J58" t="n">
-        <v>0.00797507967868938</v>
+        <v>0.0291371627175841</v>
       </c>
       <c r="K58" t="s">
         <v>16</v>
       </c>
-      <c r="L58" t="s">
-        <v>16</v>
-      </c>
+      <c r="L58"/>
       <c r="M58" t="s">
         <v>16</v>
       </c>
@@ -2737,40 +2752,34 @@
         <v>2023</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>1437</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1660</v>
-      </c>
+        <v>43006</v>
+      </c>
+      <c r="F59"/>
       <c r="G59" t="n">
-        <v>1341</v>
+        <v>48904</v>
       </c>
       <c r="H59" t="n">
-        <v>0.00414650403829673</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.00478793210366161</v>
-      </c>
+        <v>0.124095026215024</v>
+      </c>
+      <c r="I59"/>
       <c r="J59" t="n">
-        <v>0.00386784153675315</v>
+        <v>0.14105363349245</v>
       </c>
       <c r="K59" t="s">
-        <v>34</v>
-      </c>
-      <c r="L59" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L59"/>
       <c r="M59" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
@@ -2778,38 +2787,32 @@
         <v>2023</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
       </c>
       <c r="E60" t="n">
-        <v>11690</v>
-      </c>
-      <c r="F60" t="n">
-        <v>23945</v>
-      </c>
+        <v>7173</v>
+      </c>
+      <c r="F60"/>
       <c r="G60" t="n">
-        <v>10881</v>
+        <v>8729</v>
       </c>
       <c r="H60" t="n">
-        <v>0.033731824779185</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.0690644784470948</v>
-      </c>
+        <v>0.0206978938529593</v>
+      </c>
+      <c r="I60"/>
       <c r="J60" t="n">
-        <v>0.0313840296505675</v>
+        <v>0.0251770236944953</v>
       </c>
       <c r="K60" t="s">
         <v>16</v>
       </c>
-      <c r="L60" t="s">
-        <v>16</v>
-      </c>
+      <c r="L60"/>
       <c r="M60" t="s">
         <v>16</v>
       </c>
@@ -2819,31 +2822,31 @@
         <v>2023</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
         <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>208095</v>
+        <v>2838</v>
       </c>
       <c r="F61" t="n">
-        <v>239779</v>
+        <v>3668</v>
       </c>
       <c r="G61" t="n">
-        <v>202467</v>
+        <v>2765</v>
       </c>
       <c r="H61" t="n">
-        <v>0.600463992936227</v>
+        <v>0.00818912906102027</v>
       </c>
       <c r="I61" t="n">
-        <v>0.691593718002336</v>
+        <v>0.0105795993712234</v>
       </c>
       <c r="J61" t="n">
-        <v>0.583974848934974</v>
+        <v>0.00797507967868938</v>
       </c>
       <c r="K61" t="s">
         <v>16</v>
@@ -2860,40 +2863,40 @@
         <v>2023</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
       </c>
       <c r="E62" t="n">
-        <v>346557</v>
+        <v>1437</v>
       </c>
       <c r="F62" t="n">
-        <v>346705</v>
+        <v>1660</v>
       </c>
       <c r="G62" t="n">
-        <v>346705</v>
+        <v>1341</v>
       </c>
       <c r="H62" t="n">
-        <v>0.204706953929904</v>
+        <v>0.00414650403829673</v>
       </c>
       <c r="I62" t="n">
-        <v>0.20471275382805</v>
+        <v>0.00478793210366161</v>
       </c>
       <c r="J62" t="n">
-        <v>0.20471275382805</v>
+        <v>0.00386784153675315</v>
       </c>
       <c r="K62" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L62" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M62" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63">
@@ -2901,32 +2904,38 @@
         <v>2023</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>65107</v>
-      </c>
-      <c r="F63"/>
+        <v>11690</v>
+      </c>
+      <c r="F63" t="n">
+        <v>23945</v>
+      </c>
       <c r="G63" t="n">
-        <v>73546</v>
+        <v>10881</v>
       </c>
       <c r="H63" t="n">
-        <v>0.187868085192335</v>
-      </c>
-      <c r="I63"/>
+        <v>0.033731824779185</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.0690644784470948</v>
+      </c>
       <c r="J63" t="n">
-        <v>0.212128466563793</v>
+        <v>0.0313840296505675</v>
       </c>
       <c r="K63" t="s">
         <v>16</v>
       </c>
-      <c r="L63"/>
+      <c r="L63" t="s">
+        <v>16</v>
+      </c>
       <c r="M63" t="s">
         <v>16</v>
       </c>
@@ -2936,31 +2945,31 @@
         <v>2023</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>76797</v>
+        <v>208095</v>
       </c>
       <c r="F64" t="n">
-        <v>23945</v>
+        <v>239779</v>
       </c>
       <c r="G64" t="n">
-        <v>84427</v>
+        <v>202467</v>
       </c>
       <c r="H64" t="n">
-        <v>0.22159990997152</v>
+        <v>0.600463992936227</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0690644784470948</v>
+        <v>0.691593718002336</v>
       </c>
       <c r="J64" t="n">
-        <v>0.243512496214361</v>
+        <v>0.583974848934974</v>
       </c>
       <c r="K64" t="s">
         <v>16</v>
@@ -2977,31 +2986,31 @@
         <v>2023</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
       </c>
       <c r="E65" t="n">
-        <v>138462</v>
+        <v>346557</v>
       </c>
       <c r="F65" t="n">
-        <v>106926</v>
+        <v>346705</v>
       </c>
       <c r="G65" t="n">
-        <v>144238</v>
+        <v>346705</v>
       </c>
       <c r="H65" t="n">
-        <v>0.399365454781442</v>
+        <v>0.204706953929904</v>
       </c>
       <c r="I65" t="n">
-        <v>0.308406281997664</v>
+        <v>0.20471275382805</v>
       </c>
       <c r="J65" t="n">
-        <v>0.416025151065026</v>
+        <v>0.20471275382805</v>
       </c>
       <c r="K65" t="s">
         <v>16</v>
@@ -3021,35 +3030,29 @@
         <v>36</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>883</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1762</v>
-      </c>
+        <v>65107</v>
+      </c>
+      <c r="F66"/>
       <c r="G66" t="n">
-        <v>827</v>
+        <v>73546</v>
       </c>
       <c r="H66" t="n">
-        <v>0.00283290663278728</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.00565056906553955</v>
-      </c>
+        <v>0.187868085192335</v>
+      </c>
+      <c r="I66"/>
       <c r="J66" t="n">
-        <v>0.00265211158751487</v>
+        <v>0.212128466563793</v>
       </c>
       <c r="K66" t="s">
         <v>16</v>
       </c>
-      <c r="L66" t="s">
-        <v>16</v>
-      </c>
+      <c r="L66"/>
       <c r="M66" t="s">
         <v>16</v>
       </c>
@@ -3062,28 +3065,28 @@
         <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>31416</v>
+        <v>76797</v>
       </c>
       <c r="F67" t="n">
-        <v>35664</v>
+        <v>23945</v>
       </c>
       <c r="G67" t="n">
-        <v>31154</v>
+        <v>84427</v>
       </c>
       <c r="H67" t="n">
-        <v>0.10079116056132</v>
+        <v>0.22159990997152</v>
       </c>
       <c r="I67" t="n">
-        <v>0.114371109621681</v>
+        <v>0.0690644784470948</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0999079617865034</v>
+        <v>0.243512496214361</v>
       </c>
       <c r="K67" t="s">
         <v>16</v>
@@ -3103,28 +3106,28 @@
         <v>36</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D68" t="s">
         <v>15</v>
       </c>
       <c r="E68" t="n">
-        <v>7885</v>
+        <v>138462</v>
       </c>
       <c r="F68" t="n">
-        <v>10155</v>
+        <v>106926</v>
       </c>
       <c r="G68" t="n">
-        <v>7860</v>
+        <v>144238</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0252972466585818</v>
+        <v>0.399365454781442</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0325661344271022</v>
+        <v>0.308406281997664</v>
       </c>
       <c r="J68" t="n">
-        <v>0.0252062842537689</v>
+        <v>0.416025151065026</v>
       </c>
       <c r="K68" t="s">
         <v>16</v>
@@ -3144,28 +3147,28 @@
         <v>36</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D69" t="s">
         <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>18304</v>
+        <v>281450</v>
       </c>
       <c r="F69" t="n">
-        <v>24871</v>
+        <v>346705</v>
       </c>
       <c r="G69" t="n">
-        <v>17861</v>
+        <v>273159</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0587242616155588</v>
+        <v>0.812131914807665</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0797589689154563</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0572785550962553</v>
+        <v>0.787871533436207</v>
       </c>
       <c r="K69" t="s">
         <v>16</v>
@@ -3182,32 +3185,38 @@
         <v>2023</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
         <v>15</v>
       </c>
       <c r="E70" t="n">
-        <v>3535</v>
-      </c>
-      <c r="F70"/>
+        <v>883</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1762</v>
+      </c>
       <c r="G70" t="n">
-        <v>3780</v>
+        <v>827</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0113412513554961</v>
-      </c>
-      <c r="I70"/>
+        <v>0.00283290663278728</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.00565056906553955</v>
+      </c>
       <c r="J70" t="n">
-        <v>0.0121221061678431</v>
+        <v>0.00265211158751487</v>
       </c>
       <c r="K70" t="s">
         <v>16</v>
       </c>
-      <c r="L70"/>
+      <c r="L70" t="s">
+        <v>16</v>
+      </c>
       <c r="M70" t="s">
         <v>16</v>
       </c>
@@ -3217,32 +3226,38 @@
         <v>2023</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D71" t="s">
         <v>15</v>
       </c>
       <c r="E71" t="n">
-        <v>8959</v>
-      </c>
-      <c r="F71"/>
+        <v>31416</v>
+      </c>
+      <c r="F71" t="n">
+        <v>35664</v>
+      </c>
       <c r="G71" t="n">
-        <v>9573</v>
+        <v>31154</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0287429337747919</v>
-      </c>
-      <c r="I71"/>
+        <v>0.10079116056132</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.114371109621681</v>
+      </c>
       <c r="J71" t="n">
-        <v>0.0306997149060216</v>
+        <v>0.0999079617865034</v>
       </c>
       <c r="K71" t="s">
         <v>16</v>
       </c>
-      <c r="L71"/>
+      <c r="L71" t="s">
+        <v>16</v>
+      </c>
       <c r="M71" t="s">
         <v>16</v>
       </c>
@@ -3252,32 +3267,38 @@
         <v>2023</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D72" t="s">
         <v>15</v>
       </c>
       <c r="E72" t="n">
-        <v>30665</v>
-      </c>
-      <c r="F72"/>
+        <v>7885</v>
+      </c>
+      <c r="F72" t="n">
+        <v>10155</v>
+      </c>
       <c r="G72" t="n">
-        <v>35211</v>
+        <v>7860</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0983817461997985</v>
-      </c>
-      <c r="I72"/>
+        <v>0.0252972466585818</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.0325661344271022</v>
+      </c>
       <c r="J72" t="n">
-        <v>0.112918381025376</v>
+        <v>0.0252062842537689</v>
       </c>
       <c r="K72" t="s">
         <v>16</v>
       </c>
-      <c r="L72"/>
+      <c r="L72" t="s">
+        <v>16</v>
+      </c>
       <c r="M72" t="s">
         <v>16</v>
       </c>
@@ -3287,32 +3308,38 @@
         <v>2023</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
         <v>15</v>
       </c>
       <c r="E73" t="n">
-        <v>2969</v>
-      </c>
-      <c r="F73"/>
+        <v>18304</v>
+      </c>
+      <c r="F73" t="n">
+        <v>24871</v>
+      </c>
       <c r="G73" t="n">
-        <v>3487</v>
+        <v>17861</v>
       </c>
       <c r="H73" t="n">
-        <v>0.00952536782870379</v>
-      </c>
-      <c r="I73"/>
+        <v>0.0587242616155588</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.0797589689154563</v>
+      </c>
       <c r="J73" t="n">
-        <v>0.0111824825945155</v>
+        <v>0.0572785550962553</v>
       </c>
       <c r="K73" t="s">
         <v>16</v>
       </c>
-      <c r="L73"/>
+      <c r="L73" t="s">
+        <v>16</v>
+      </c>
       <c r="M73" t="s">
         <v>16</v>
       </c>
@@ -3322,40 +3349,34 @@
         <v>2023</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C74" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D74" t="s">
         <v>15</v>
       </c>
       <c r="E74" t="n">
-        <v>573</v>
-      </c>
-      <c r="F74" t="n">
-        <v>883</v>
-      </c>
+        <v>3535</v>
+      </c>
+      <c r="F74"/>
       <c r="G74" t="n">
-        <v>539</v>
+        <v>3780</v>
       </c>
       <c r="H74" t="n">
-        <v>0.00183834145026853</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.00283169834555699</v>
-      </c>
+        <v>0.0113412513554961</v>
+      </c>
+      <c r="I74"/>
       <c r="J74" t="n">
-        <v>0.0017285225461554</v>
+        <v>0.0121221061678431</v>
       </c>
       <c r="K74" t="s">
-        <v>34</v>
-      </c>
-      <c r="L74" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L74"/>
       <c r="M74" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
@@ -3363,40 +3384,34 @@
         <v>2023</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
         <v>15</v>
       </c>
       <c r="E75" t="n">
-        <v>1359</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1835</v>
-      </c>
+        <v>8959</v>
+      </c>
+      <c r="F75"/>
       <c r="G75" t="n">
-        <v>1333</v>
+        <v>9573</v>
       </c>
       <c r="H75" t="n">
-        <v>0.00436004542917092</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.00588467323227302</v>
-      </c>
+        <v>0.0287429337747919</v>
+      </c>
+      <c r="I75"/>
       <c r="J75" t="n">
-        <v>0.00427480622268117</v>
+        <v>0.0306997149060216</v>
       </c>
       <c r="K75" t="s">
-        <v>34</v>
-      </c>
-      <c r="L75" t="s">
-        <v>16</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L75"/>
       <c r="M75" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
@@ -3404,38 +3419,32 @@
         <v>2023</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D76" t="s">
         <v>15</v>
       </c>
       <c r="E76" t="n">
-        <v>7378</v>
-      </c>
-      <c r="F76" t="n">
-        <v>14299</v>
-      </c>
+        <v>30665</v>
+      </c>
+      <c r="F76"/>
       <c r="G76" t="n">
-        <v>7100</v>
+        <v>35211</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0236706513439463</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.0458555545222191</v>
-      </c>
+        <v>0.0983817461997985</v>
+      </c>
+      <c r="I76"/>
       <c r="J76" t="n">
-        <v>0.0227690353946259</v>
+        <v>0.112918381025376</v>
       </c>
       <c r="K76" t="s">
         <v>16</v>
       </c>
-      <c r="L76" t="s">
-        <v>16</v>
-      </c>
+      <c r="L76"/>
       <c r="M76" t="s">
         <v>16</v>
       </c>
@@ -3445,38 +3454,32 @@
         <v>2023</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
         <v>15</v>
       </c>
       <c r="E77" t="n">
-        <v>197768</v>
-      </c>
-      <c r="F77" t="n">
-        <v>222358</v>
-      </c>
+        <v>2969</v>
+      </c>
+      <c r="F77"/>
       <c r="G77" t="n">
-        <v>193102</v>
+        <v>3487</v>
       </c>
       <c r="H77" t="n">
-        <v>0.634494087149576</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.713081291870172</v>
-      </c>
+        <v>0.00952536782870379</v>
+      </c>
+      <c r="I77"/>
       <c r="J77" t="n">
-        <v>0.619260038418739</v>
+        <v>0.0111824825945155</v>
       </c>
       <c r="K77" t="s">
         <v>16</v>
       </c>
-      <c r="L77" t="s">
-        <v>16</v>
-      </c>
+      <c r="L77"/>
       <c r="M77" t="s">
         <v>16</v>
       </c>
@@ -3486,40 +3489,40 @@
         <v>2023</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
       </c>
       <c r="E78" t="n">
-        <v>311694</v>
+        <v>573</v>
       </c>
       <c r="F78" t="n">
-        <v>311827</v>
+        <v>883</v>
       </c>
       <c r="G78" t="n">
-        <v>311827</v>
+        <v>539</v>
       </c>
       <c r="H78" t="n">
-        <v>0.184113808978689</v>
+        <v>0.00183834145026853</v>
       </c>
       <c r="I78" t="n">
-        <v>0.184118959599484</v>
+        <v>0.00283169834555699</v>
       </c>
       <c r="J78" t="n">
-        <v>0.184118959599484</v>
+        <v>0.0017285225461554</v>
       </c>
       <c r="K78" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L78" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M78" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79">
@@ -3527,34 +3530,40 @@
         <v>2023</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
       <c r="E79" t="n">
-        <v>46128</v>
-      </c>
-      <c r="F79"/>
+        <v>1359</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1835</v>
+      </c>
       <c r="G79" t="n">
-        <v>52051</v>
+        <v>1333</v>
       </c>
       <c r="H79" t="n">
-        <v>0.14799129915879</v>
-      </c>
-      <c r="I79"/>
+        <v>0.00436004542917092</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.00588467323227302</v>
+      </c>
       <c r="J79" t="n">
-        <v>0.166922684693756</v>
+        <v>0.00427480622268117</v>
       </c>
       <c r="K79" t="s">
-        <v>16</v>
-      </c>
-      <c r="L79"/>
+        <v>35</v>
+      </c>
+      <c r="L79" t="s">
+        <v>16</v>
+      </c>
       <c r="M79" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80">
@@ -3562,31 +3571,31 @@
         <v>2023</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
       </c>
       <c r="E80" t="n">
-        <v>53506</v>
+        <v>7378</v>
       </c>
       <c r="F80" t="n">
         <v>14299</v>
       </c>
       <c r="G80" t="n">
-        <v>59151</v>
+        <v>7100</v>
       </c>
       <c r="H80" t="n">
-        <v>0.171661950502737</v>
+        <v>0.0236706513439463</v>
       </c>
       <c r="I80" t="n">
         <v>0.0458555545222191</v>
       </c>
       <c r="J80" t="n">
-        <v>0.189691720088382</v>
+        <v>0.0227690353946259</v>
       </c>
       <c r="K80" t="s">
         <v>16</v>
@@ -3603,39 +3612,238 @@
         <v>2023</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
       </c>
       <c r="E81" t="n">
+        <v>197768</v>
+      </c>
+      <c r="F81" t="n">
+        <v>222358</v>
+      </c>
+      <c r="G81" t="n">
+        <v>193102</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.634494087149576</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.713081291870172</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.619260038418739</v>
+      </c>
+      <c r="K81" t="s">
+        <v>16</v>
+      </c>
+      <c r="L81" t="s">
+        <v>16</v>
+      </c>
+      <c r="M81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B82" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" t="n">
+        <v>311694</v>
+      </c>
+      <c r="F82" t="n">
+        <v>311827</v>
+      </c>
+      <c r="G82" t="n">
+        <v>311827</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.184113808978689</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.184118959599484</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.184118959599484</v>
+      </c>
+      <c r="K82" t="s">
+        <v>16</v>
+      </c>
+      <c r="L82" t="s">
+        <v>16</v>
+      </c>
+      <c r="M82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" t="n">
+        <v>46128</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83" t="n">
+        <v>52051</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.14799129915879</v>
+      </c>
+      <c r="I83"/>
+      <c r="J83" t="n">
+        <v>0.166922684693756</v>
+      </c>
+      <c r="K83" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83"/>
+      <c r="M83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B84" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" t="n">
+        <v>53506</v>
+      </c>
+      <c r="F84" t="n">
+        <v>14299</v>
+      </c>
+      <c r="G84" t="n">
+        <v>59151</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.171661950502737</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.0458555545222191</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.189691720088382</v>
+      </c>
+      <c r="K84" t="s">
+        <v>16</v>
+      </c>
+      <c r="L84" t="s">
+        <v>16</v>
+      </c>
+      <c r="M84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B85" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" t="n">
         <v>113926</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F85" t="n">
         <v>89469</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G85" t="n">
         <v>118725</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H85" t="n">
         <v>0.36535001779833</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I85" t="n">
         <v>0.286918708129828</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J85" t="n">
         <v>0.380739961581261</v>
       </c>
-      <c r="K81" t="s">
-        <v>16</v>
-      </c>
-      <c r="L81" t="s">
-        <v>16</v>
-      </c>
-      <c r="M81" t="s">
+      <c r="K85" t="s">
+        <v>16</v>
+      </c>
+      <c r="L85" t="s">
+        <v>16</v>
+      </c>
+      <c r="M85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B86" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" t="s">
+        <v>32</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" t="n">
+        <v>265566</v>
+      </c>
+      <c r="F86" t="n">
+        <v>311827</v>
+      </c>
+      <c r="G86" t="n">
+        <v>259776</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.85200870084121</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.833077315306244</v>
+      </c>
+      <c r="K86" t="s">
+        <v>16</v>
+      </c>
+      <c r="L86" t="s">
+        <v>16</v>
+      </c>
+      <c r="M86" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3705,7 +3913,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="n">
         <v>4768</v>
@@ -3746,7 +3954,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
         <v>205487</v>
@@ -3787,7 +3995,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" t="n">
         <v>76161</v>
@@ -3828,7 +4036,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" t="n">
         <v>98130</v>
@@ -3869,7 +4077,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" t="n">
         <v>224860</v>
@@ -3901,10 +4109,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
       </c>
       <c r="E7" t="n">
         <v>46575</v>
@@ -3939,7 +4147,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" t="n">
         <v>7485</v>
@@ -3980,7 +4188,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" t="n">
         <v>7048</v>
@@ -4021,7 +4229,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" t="n">
         <v>50366</v>
@@ -4062,7 +4270,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" t="n">
         <v>972062</v>
@@ -4103,7 +4311,7 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" t="n">
         <v>1692942</v>
@@ -4144,7 +4352,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" t="n">
         <v>271435</v>
@@ -4179,7 +4387,7 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" t="n">
         <v>321801</v>
@@ -4220,7 +4428,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" t="n">
         <v>720880</v>
@@ -4255,31 +4463,31 @@
         <v>2023</v>
       </c>
       <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" t="n">
-        <v>1869</v>
+        <v>1421507</v>
       </c>
       <c r="F16" t="n">
-        <v>3157</v>
+        <v>1693617</v>
       </c>
       <c r="G16" t="n">
-        <v>1663</v>
+        <v>1393583</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0020152094944509</v>
+        <v>0.839666686750048</v>
       </c>
       <c r="I16" t="n">
-        <v>0.00340259597487015</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0017923715889164</v>
+        <v>0.822844244005581</v>
       </c>
       <c r="K16" t="s">
         <v>16</v>
@@ -4296,31 +4504,31 @@
         <v>2023</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" t="n">
-        <v>154892</v>
+        <v>1869</v>
       </c>
       <c r="F17" t="n">
-        <v>173743</v>
+        <v>3157</v>
       </c>
       <c r="G17" t="n">
-        <v>153280</v>
+        <v>1663</v>
       </c>
       <c r="H17" t="n">
-        <v>0.167009004288116</v>
+        <v>0.0020152094944509</v>
       </c>
       <c r="I17" t="n">
-        <v>0.187259180380698</v>
+        <v>0.00340259597487015</v>
       </c>
       <c r="J17" t="n">
-        <v>0.165204279704814</v>
+        <v>0.0017923715889164</v>
       </c>
       <c r="K17" t="s">
         <v>16</v>
@@ -4337,31 +4545,31 @@
         <v>2023</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" t="n">
-        <v>48486</v>
+        <v>154892</v>
       </c>
       <c r="F18" t="n">
-        <v>54290</v>
+        <v>173743</v>
       </c>
       <c r="G18" t="n">
-        <v>47498</v>
+        <v>153280</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0522789981529942</v>
+        <v>0.167009004288116</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0585134417091228</v>
+        <v>0.187259180380698</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0511930641794053</v>
+        <v>0.165204279704814</v>
       </c>
       <c r="K18" t="s">
         <v>16</v>
@@ -4378,31 +4586,31 @@
         <v>2023</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" t="n">
-        <v>54181</v>
+        <v>48486</v>
       </c>
       <c r="F19" t="n">
-        <v>74084</v>
+        <v>54290</v>
       </c>
       <c r="G19" t="n">
-        <v>53533</v>
+        <v>47498</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0584195107644965</v>
+        <v>0.0522789981529942</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0798472981318595</v>
+        <v>0.0585134417091228</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0576975515751422</v>
+        <v>0.0511930641794053</v>
       </c>
       <c r="K19" t="s">
         <v>16</v>
@@ -4419,32 +4627,38 @@
         <v>2023</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" t="n">
-        <v>116474</v>
-      </c>
-      <c r="F20"/>
+        <v>54181</v>
+      </c>
+      <c r="F20" t="n">
+        <v>74084</v>
+      </c>
       <c r="G20" t="n">
-        <v>124879</v>
+        <v>53533</v>
       </c>
       <c r="H20" t="n">
-        <v>0.125585612978424</v>
-      </c>
-      <c r="I20"/>
+        <v>0.0584195107644965</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0798472981318595</v>
+      </c>
       <c r="J20" t="n">
-        <v>0.134593849460187</v>
+        <v>0.0576975515751422</v>
       </c>
       <c r="K20" t="s">
         <v>16</v>
       </c>
-      <c r="L20"/>
+      <c r="L20" t="s">
+        <v>16</v>
+      </c>
       <c r="M20" t="s">
         <v>16</v>
       </c>
@@ -4454,27 +4668,27 @@
         <v>2023</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
         <v>38</v>
       </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
       <c r="E21" t="n">
-        <v>25115</v>
+        <v>116474</v>
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>28765</v>
+        <v>124879</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0270797145281617</v>
+        <v>0.125585612978424</v>
       </c>
       <c r="I21"/>
       <c r="J21" t="n">
-        <v>0.0310027472971618</v>
+        <v>0.134593849460187</v>
       </c>
       <c r="K21" t="s">
         <v>16</v>
@@ -4489,38 +4703,32 @@
         <v>2023</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22" t="n">
-        <v>3752</v>
-      </c>
-      <c r="F22" t="n">
-        <v>5077</v>
-      </c>
+        <v>25115</v>
+      </c>
+      <c r="F22"/>
       <c r="G22" t="n">
-        <v>3477</v>
+        <v>28765</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00404551419110742</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.00547196064758181</v>
-      </c>
+        <v>0.0270797145281617</v>
+      </c>
+      <c r="I22"/>
       <c r="J22" t="n">
-        <v>0.00374749008698876</v>
+        <v>0.0310027472971618</v>
       </c>
       <c r="K22" t="s">
         <v>16</v>
       </c>
-      <c r="L22" t="s">
-        <v>16</v>
-      </c>
+      <c r="L22"/>
       <c r="M22" t="s">
         <v>16</v>
       </c>
@@ -4530,31 +4738,31 @@
         <v>2023</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23" t="n">
-        <v>3620</v>
+        <v>3752</v>
       </c>
       <c r="F23" t="n">
-        <v>4479</v>
+        <v>5077</v>
       </c>
       <c r="G23" t="n">
-        <v>3591</v>
+        <v>3477</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00390318799888295</v>
+        <v>0.00404551419110742</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00482743977556016</v>
+        <v>0.00547196064758181</v>
       </c>
       <c r="J23" t="n">
-        <v>0.00387035861443102</v>
+        <v>0.00374749008698876</v>
       </c>
       <c r="K23" t="s">
         <v>16</v>
@@ -4571,31 +4779,31 @@
         <v>2023</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" t="n">
-        <v>28192</v>
+        <v>3620</v>
       </c>
       <c r="F24" t="n">
-        <v>49477</v>
+        <v>4479</v>
       </c>
       <c r="G24" t="n">
-        <v>27156</v>
+        <v>3591</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0303974243272122</v>
+        <v>0.00390318799888295</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0533260187040388</v>
+        <v>0.00482743977556016</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0292685765896655</v>
+        <v>0.00387035861443102</v>
       </c>
       <c r="K24" t="s">
         <v>16</v>
@@ -4612,31 +4820,31 @@
         <v>2023</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25" t="n">
-        <v>490866</v>
+        <v>28192</v>
       </c>
       <c r="F25" t="n">
-        <v>563514</v>
+        <v>49477</v>
       </c>
       <c r="G25" t="n">
-        <v>483979</v>
+        <v>27156</v>
       </c>
       <c r="H25" t="n">
-        <v>0.529265823276155</v>
+        <v>0.0303974243272122</v>
       </c>
       <c r="I25" t="n">
-        <v>0.607352064676268</v>
+        <v>0.0533260187040388</v>
       </c>
       <c r="J25" t="n">
-        <v>0.521629710903288</v>
+        <v>0.0292685765896655</v>
       </c>
       <c r="K25" t="s">
         <v>16</v>
@@ -4653,31 +4861,31 @@
         <v>2023</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E26" t="n">
-        <v>927447</v>
+        <v>490866</v>
       </c>
       <c r="F26" t="n">
-        <v>927821</v>
+        <v>563514</v>
       </c>
       <c r="G26" t="n">
-        <v>927821</v>
+        <v>483979</v>
       </c>
       <c r="H26" t="n">
-        <v>0.547831526419688</v>
+        <v>0.529265823276155</v>
       </c>
       <c r="I26" t="n">
-        <v>0.547834014420025</v>
+        <v>0.607352064676268</v>
       </c>
       <c r="J26" t="n">
-        <v>0.547834014420025</v>
+        <v>0.521629710903288</v>
       </c>
       <c r="K26" t="s">
         <v>16</v>
@@ -4694,32 +4902,38 @@
         <v>2023</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" t="n">
-        <v>141589</v>
-      </c>
-      <c r="F27"/>
+        <v>927447</v>
+      </c>
+      <c r="F27" t="n">
+        <v>927821</v>
+      </c>
       <c r="G27" t="n">
-        <v>153644</v>
+        <v>927821</v>
       </c>
       <c r="H27" t="n">
-        <v>0.152665327506585</v>
-      </c>
-      <c r="I27"/>
+        <v>0.547831526419688</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.547834014420025</v>
+      </c>
       <c r="J27" t="n">
-        <v>0.165596596757349</v>
+        <v>0.547834014420025</v>
       </c>
       <c r="K27" t="s">
         <v>16</v>
       </c>
-      <c r="L27"/>
+      <c r="L27" t="s">
+        <v>16</v>
+      </c>
       <c r="M27" t="s">
         <v>16</v>
       </c>
@@ -4729,38 +4943,32 @@
         <v>2023</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28" t="n">
-        <v>169781</v>
-      </c>
-      <c r="F28" t="n">
-        <v>49477</v>
-      </c>
+        <v>141589</v>
+      </c>
+      <c r="F28"/>
       <c r="G28" t="n">
-        <v>180800</v>
+        <v>153644</v>
       </c>
       <c r="H28" t="n">
-        <v>0.183062751833797</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.0533260187040388</v>
-      </c>
+        <v>0.152665327506585</v>
+      </c>
+      <c r="I28"/>
       <c r="J28" t="n">
-        <v>0.194865173347014</v>
+        <v>0.165596596757349</v>
       </c>
       <c r="K28" t="s">
         <v>16</v>
       </c>
-      <c r="L28" t="s">
-        <v>16</v>
-      </c>
+      <c r="L28"/>
       <c r="M28" t="s">
         <v>16</v>
       </c>
@@ -4770,31 +4978,31 @@
         <v>2023</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29" t="n">
-        <v>436581</v>
+        <v>169781</v>
       </c>
       <c r="F29" t="n">
-        <v>364307</v>
+        <v>49477</v>
       </c>
       <c r="G29" t="n">
-        <v>443842</v>
+        <v>180800</v>
       </c>
       <c r="H29" t="n">
-        <v>0.47054442613392</v>
+        <v>0.183062751833797</v>
       </c>
       <c r="I29" t="n">
-        <v>0.392647935323732</v>
+        <v>0.0533260187040388</v>
       </c>
       <c r="J29" t="n">
-        <v>0.478370289096712</v>
+        <v>0.194865173347014</v>
       </c>
       <c r="K29" t="s">
         <v>16</v>
@@ -4814,37 +5022,37 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E30" t="n">
-        <v>614</v>
+        <v>436581</v>
       </c>
       <c r="F30" t="n">
-        <v>932</v>
+        <v>364307</v>
       </c>
       <c r="G30" t="n">
-        <v>601</v>
+        <v>443842</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00572526201932043</v>
+        <v>0.47054442613392</v>
       </c>
       <c r="I30" t="n">
-        <v>0.00868884248210024</v>
+        <v>0.392647935323732</v>
       </c>
       <c r="J30" t="n">
-        <v>0.00560299821002387</v>
+        <v>0.478370289096712</v>
       </c>
       <c r="K30" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
       </c>
       <c r="M30" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -4855,28 +5063,28 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E31" t="n">
-        <v>3104</v>
+        <v>785858</v>
       </c>
       <c r="F31" t="n">
-        <v>4223</v>
+        <v>927821</v>
       </c>
       <c r="G31" t="n">
-        <v>2998</v>
+        <v>774177</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0289433441497893</v>
+        <v>0.847334672493415</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0393701521479714</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.02794973150358</v>
+        <v>0.834403403242651</v>
       </c>
       <c r="K31" t="s">
         <v>16</v>
@@ -4893,40 +5101,40 @@
         <v>2023</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E32" t="n">
-        <v>1586</v>
+        <v>614</v>
       </c>
       <c r="F32" t="n">
-        <v>2551</v>
+        <v>932</v>
       </c>
       <c r="G32" t="n">
-        <v>1560</v>
+        <v>601</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0147887061280818</v>
+        <v>0.00572526201932043</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0237824433174224</v>
+        <v>0.00868884248210024</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0145435560859189</v>
+        <v>0.00560299821002387</v>
       </c>
       <c r="K32" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
       </c>
       <c r="M32" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -4934,31 +5142,31 @@
         <v>2023</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E33" t="n">
-        <v>3936</v>
+        <v>3104</v>
       </c>
       <c r="F33" t="n">
-        <v>7211</v>
+        <v>4223</v>
       </c>
       <c r="G33" t="n">
-        <v>3903</v>
+        <v>2998</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0367013539218977</v>
+        <v>0.0289433441497893</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0672266557279236</v>
+        <v>0.0393701521479714</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0363868585918854</v>
+        <v>0.02794973150358</v>
       </c>
       <c r="K33" t="s">
         <v>16</v>
@@ -4975,32 +5183,38 @@
         <v>2023</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E34" t="n">
-        <v>16052</v>
-      </c>
-      <c r="F34"/>
+        <v>1586</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2551</v>
+      </c>
       <c r="G34" t="n">
-        <v>17973</v>
+        <v>1560</v>
       </c>
       <c r="H34" t="n">
-        <v>0.149677371228227</v>
-      </c>
-      <c r="I34"/>
+        <v>0.0147887061280818</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0237824433174224</v>
+      </c>
       <c r="J34" t="n">
-        <v>0.167558547136038</v>
+        <v>0.0145435560859189</v>
       </c>
       <c r="K34" t="s">
         <v>16</v>
       </c>
-      <c r="L34"/>
+      <c r="L34" t="s">
+        <v>16</v>
+      </c>
       <c r="M34" t="s">
         <v>16</v>
       </c>
@@ -5010,32 +5224,38 @@
         <v>2023</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
         <v>38</v>
       </c>
-      <c r="D35" t="s">
-        <v>37</v>
-      </c>
       <c r="E35" t="n">
-        <v>2559</v>
-      </c>
-      <c r="F35"/>
+        <v>3936</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7211</v>
+      </c>
       <c r="G35" t="n">
-        <v>2820</v>
+        <v>3903</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0238614747678192</v>
-      </c>
-      <c r="I35"/>
+        <v>0.0367013539218977</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0672266557279236</v>
+      </c>
       <c r="J35" t="n">
-        <v>0.0262902744630072</v>
+        <v>0.0363868585918854</v>
       </c>
       <c r="K35" t="s">
         <v>16</v>
       </c>
-      <c r="L35"/>
+      <c r="L35" t="s">
+        <v>16</v>
+      </c>
       <c r="M35" t="s">
         <v>16</v>
       </c>
@@ -5045,40 +5265,34 @@
         <v>2023</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E36" t="n">
-        <v>322</v>
-      </c>
-      <c r="F36" t="n">
-        <v>763</v>
-      </c>
+        <v>16052</v>
+      </c>
+      <c r="F36"/>
       <c r="G36" t="n">
-        <v>322</v>
+        <v>17973</v>
       </c>
       <c r="H36" t="n">
-        <v>0.00300249897430159</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.00711329057279236</v>
-      </c>
+        <v>0.149677371228227</v>
+      </c>
+      <c r="I36"/>
       <c r="J36" t="n">
-        <v>0.00300193914081146</v>
+        <v>0.167558547136038</v>
       </c>
       <c r="K36" t="s">
-        <v>34</v>
-      </c>
-      <c r="L36" t="s">
-        <v>16</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L36"/>
       <c r="M36" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -5086,40 +5300,34 @@
         <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E37" t="n">
-        <v>632</v>
-      </c>
-      <c r="F37" t="n">
-        <v>733</v>
-      </c>
+        <v>2559</v>
+      </c>
+      <c r="F37"/>
       <c r="G37" t="n">
-        <v>632</v>
+        <v>2820</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00589310357689008</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.00683360680190931</v>
-      </c>
+        <v>0.0238614747678192</v>
+      </c>
+      <c r="I37"/>
       <c r="J37" t="n">
-        <v>0.00589200477326969</v>
+        <v>0.0262902744630072</v>
       </c>
       <c r="K37" t="s">
-        <v>34</v>
-      </c>
-      <c r="L37" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L37"/>
       <c r="M37" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -5127,40 +5335,40 @@
         <v>2023</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E38" t="n">
-        <v>3106</v>
+        <v>322</v>
       </c>
       <c r="F38" t="n">
-        <v>5753</v>
+        <v>763</v>
       </c>
       <c r="G38" t="n">
-        <v>2967</v>
+        <v>322</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0289619932117414</v>
+        <v>0.00300249897430159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0536340244630072</v>
+        <v>0.00711329057279236</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0276607249403341</v>
+        <v>0.00300193914081146</v>
       </c>
       <c r="K38" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
       </c>
       <c r="M38" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
@@ -5168,40 +5376,40 @@
         <v>2023</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E39" t="n">
-        <v>75333</v>
+        <v>632</v>
       </c>
       <c r="F39" t="n">
-        <v>85098</v>
+        <v>733</v>
       </c>
       <c r="G39" t="n">
-        <v>73488</v>
+        <v>632</v>
       </c>
       <c r="H39" t="n">
-        <v>0.702444892021931</v>
+        <v>0.00589310357689008</v>
       </c>
       <c r="I39" t="n">
-        <v>0.793350984486873</v>
+        <v>0.00683360680190931</v>
       </c>
       <c r="J39" t="n">
-        <v>0.685113365155131</v>
+        <v>0.00589200477326969</v>
       </c>
       <c r="K39" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L39" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M39" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
@@ -5209,31 +5417,31 @@
         <v>2023</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E40" t="n">
-        <v>107244</v>
+        <v>3106</v>
       </c>
       <c r="F40" t="n">
-        <v>107264</v>
+        <v>5753</v>
       </c>
       <c r="G40" t="n">
-        <v>107264</v>
+        <v>2967</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0633477106717182</v>
+        <v>0.0289619932117414</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0633342721524406</v>
+        <v>0.0536340244630072</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0633342721524406</v>
+        <v>0.0276607249403341</v>
       </c>
       <c r="K40" t="s">
         <v>16</v>
@@ -5250,32 +5458,38 @@
         <v>2023</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E41" t="n">
-        <v>18611</v>
-      </c>
-      <c r="F41"/>
+        <v>75333</v>
+      </c>
+      <c r="F41" t="n">
+        <v>85098</v>
+      </c>
       <c r="G41" t="n">
-        <v>20793</v>
+        <v>73488</v>
       </c>
       <c r="H41" t="n">
-        <v>0.173538845996046</v>
-      </c>
-      <c r="I41"/>
+        <v>0.702444892021931</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.793350984486873</v>
+      </c>
       <c r="J41" t="n">
-        <v>0.193848821599045</v>
+        <v>0.685113365155131</v>
       </c>
       <c r="K41" t="s">
         <v>16</v>
       </c>
-      <c r="L41"/>
+      <c r="L41" t="s">
+        <v>16</v>
+      </c>
       <c r="M41" t="s">
         <v>16</v>
       </c>
@@ -5285,31 +5499,31 @@
         <v>2023</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E42" t="n">
-        <v>21717</v>
+        <v>107244</v>
       </c>
       <c r="F42" t="n">
-        <v>5753</v>
+        <v>107264</v>
       </c>
       <c r="G42" t="n">
-        <v>23760</v>
+        <v>107264</v>
       </c>
       <c r="H42" t="n">
-        <v>0.202500839207788</v>
+        <v>0.0633477106717182</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0536340244630072</v>
+        <v>0.0633342721524406</v>
       </c>
       <c r="J42" t="n">
-        <v>0.221509546539379</v>
+        <v>0.0633342721524406</v>
       </c>
       <c r="K42" t="s">
         <v>16</v>
@@ -5326,38 +5540,32 @@
         <v>2023</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E43" t="n">
-        <v>31911</v>
-      </c>
-      <c r="F43" t="n">
-        <v>22166</v>
-      </c>
+        <v>18611</v>
+      </c>
+      <c r="F43"/>
       <c r="G43" t="n">
-        <v>33776</v>
+        <v>20793</v>
       </c>
       <c r="H43" t="n">
-        <v>0.297499627088305</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.206649015513127</v>
-      </c>
+        <v>0.173538845996046</v>
+      </c>
+      <c r="I43"/>
       <c r="J43" t="n">
-        <v>0.314886634844869</v>
+        <v>0.193848821599045</v>
       </c>
       <c r="K43" t="s">
         <v>16</v>
       </c>
-      <c r="L43" t="s">
-        <v>16</v>
-      </c>
+      <c r="L43"/>
       <c r="M43" t="s">
         <v>16</v>
       </c>
@@ -5367,31 +5575,31 @@
         <v>2023</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E44" t="n">
-        <v>1402</v>
+        <v>21717</v>
       </c>
       <c r="F44" t="n">
-        <v>2415</v>
+        <v>5753</v>
       </c>
       <c r="G44" t="n">
-        <v>1350</v>
+        <v>23760</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0040455105509339</v>
+        <v>0.202500839207788</v>
       </c>
       <c r="I44" t="n">
-        <v>0.00696557592189325</v>
+        <v>0.0536340244630072</v>
       </c>
       <c r="J44" t="n">
-        <v>0.00389380020478505</v>
+        <v>0.221509546539379</v>
       </c>
       <c r="K44" t="s">
         <v>16</v>
@@ -5408,31 +5616,31 @@
         <v>2023</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E45" t="n">
-        <v>16075</v>
+        <v>31911</v>
       </c>
       <c r="F45" t="n">
-        <v>20777</v>
+        <v>22166</v>
       </c>
       <c r="G45" t="n">
-        <v>15419</v>
+        <v>33776</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0463848659816423</v>
+        <v>0.297499627088305</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0599270272998659</v>
+        <v>0.206649015513127</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0444729669315412</v>
+        <v>0.314886634844869</v>
       </c>
       <c r="K45" t="s">
         <v>16</v>
@@ -5449,31 +5657,31 @@
         <v>2023</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E46" t="n">
-        <v>18204</v>
+        <v>88633</v>
       </c>
       <c r="F46" t="n">
-        <v>22812</v>
+        <v>107264</v>
       </c>
       <c r="G46" t="n">
-        <v>17571</v>
+        <v>86471</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0525281555415127</v>
+        <v>0.826461154003954</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0657965705715233</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0506799728876134</v>
+        <v>0.806151178400955</v>
       </c>
       <c r="K46" t="s">
         <v>16</v>
@@ -5490,31 +5698,31 @@
         <v>2023</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E47" t="n">
-        <v>21709</v>
+        <v>1402</v>
       </c>
       <c r="F47" t="n">
-        <v>31649</v>
+        <v>2415</v>
       </c>
       <c r="G47" t="n">
-        <v>21365</v>
+        <v>1350</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0626419319188474</v>
+        <v>0.0040455105509339</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0912850982824015</v>
+        <v>0.00696557592189325</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0616229936112834</v>
+        <v>0.00389380020478505</v>
       </c>
       <c r="K47" t="s">
         <v>16</v>
@@ -5531,32 +5739,38 @@
         <v>2023</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E48" t="n">
-        <v>52710</v>
-      </c>
-      <c r="F48"/>
+        <v>16075</v>
+      </c>
+      <c r="F48" t="n">
+        <v>20777</v>
+      </c>
       <c r="G48" t="n">
-        <v>59006</v>
+        <v>15419</v>
       </c>
       <c r="H48" t="n">
-        <v>0.152096191968421</v>
-      </c>
-      <c r="I48"/>
+        <v>0.0463848659816423</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0599270272998659</v>
+      </c>
       <c r="J48" t="n">
-        <v>0.170190796210034</v>
+        <v>0.0444729669315412</v>
       </c>
       <c r="K48" t="s">
         <v>16</v>
       </c>
-      <c r="L48"/>
+      <c r="L48" t="s">
+        <v>16</v>
+      </c>
       <c r="M48" t="s">
         <v>16</v>
       </c>
@@ -5566,32 +5780,38 @@
         <v>2023</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
         <v>38</v>
       </c>
-      <c r="D49" t="s">
-        <v>37</v>
-      </c>
       <c r="E49" t="n">
-        <v>12397</v>
-      </c>
-      <c r="F49"/>
+        <v>18204</v>
+      </c>
+      <c r="F49" t="n">
+        <v>22812</v>
+      </c>
       <c r="G49" t="n">
-        <v>14540</v>
+        <v>17571</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0357718932239141</v>
-      </c>
-      <c r="I49"/>
+        <v>0.0525281555415127</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0657965705715233</v>
+      </c>
       <c r="J49" t="n">
-        <v>0.041937670353759</v>
+        <v>0.0506799728876134</v>
       </c>
       <c r="K49" t="s">
         <v>16</v>
       </c>
-      <c r="L49"/>
+      <c r="L49" t="s">
+        <v>16</v>
+      </c>
       <c r="M49" t="s">
         <v>16</v>
       </c>
@@ -5601,31 +5821,31 @@
         <v>2023</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E50" t="n">
-        <v>2838</v>
+        <v>21709</v>
       </c>
       <c r="F50" t="n">
-        <v>3668</v>
+        <v>31649</v>
       </c>
       <c r="G50" t="n">
-        <v>2765</v>
+        <v>21365</v>
       </c>
       <c r="H50" t="n">
-        <v>0.00818912906102027</v>
+        <v>0.0626419319188474</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0105795993712234</v>
+        <v>0.0912850982824015</v>
       </c>
       <c r="J50" t="n">
-        <v>0.00797507967868938</v>
+        <v>0.0616229936112834</v>
       </c>
       <c r="K50" t="s">
         <v>16</v>
@@ -5642,40 +5862,34 @@
         <v>2023</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E51" t="n">
-        <v>1437</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1660</v>
-      </c>
+        <v>52710</v>
+      </c>
+      <c r="F51"/>
       <c r="G51" t="n">
-        <v>1341</v>
+        <v>59006</v>
       </c>
       <c r="H51" t="n">
-        <v>0.00414650403829673</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.00478793210366161</v>
-      </c>
+        <v>0.152096191968421</v>
+      </c>
+      <c r="I51"/>
       <c r="J51" t="n">
-        <v>0.00386784153675315</v>
+        <v>0.170190796210034</v>
       </c>
       <c r="K51" t="s">
-        <v>34</v>
-      </c>
-      <c r="L51" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L51"/>
       <c r="M51" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -5683,38 +5897,32 @@
         <v>2023</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E52" t="n">
-        <v>11690</v>
-      </c>
-      <c r="F52" t="n">
-        <v>23945</v>
-      </c>
+        <v>12397</v>
+      </c>
+      <c r="F52"/>
       <c r="G52" t="n">
-        <v>10881</v>
+        <v>14540</v>
       </c>
       <c r="H52" t="n">
-        <v>0.033731824779185</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.0690644784470948</v>
-      </c>
+        <v>0.0357718932239141</v>
+      </c>
+      <c r="I52"/>
       <c r="J52" t="n">
-        <v>0.0313840296505675</v>
+        <v>0.041937670353759</v>
       </c>
       <c r="K52" t="s">
         <v>16</v>
       </c>
-      <c r="L52" t="s">
-        <v>16</v>
-      </c>
+      <c r="L52"/>
       <c r="M52" t="s">
         <v>16</v>
       </c>
@@ -5724,31 +5932,31 @@
         <v>2023</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E53" t="n">
-        <v>208095</v>
+        <v>2838</v>
       </c>
       <c r="F53" t="n">
-        <v>239779</v>
+        <v>3668</v>
       </c>
       <c r="G53" t="n">
-        <v>202467</v>
+        <v>2765</v>
       </c>
       <c r="H53" t="n">
-        <v>0.600463992936227</v>
+        <v>0.00818912906102027</v>
       </c>
       <c r="I53" t="n">
-        <v>0.691593718002336</v>
+        <v>0.0105795993712234</v>
       </c>
       <c r="J53" t="n">
-        <v>0.583974848934974</v>
+        <v>0.00797507967868938</v>
       </c>
       <c r="K53" t="s">
         <v>16</v>
@@ -5765,40 +5973,40 @@
         <v>2023</v>
       </c>
       <c r="B54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1437</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1660</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1341</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.00414650403829673</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.00478793210366161</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.00386784153675315</v>
+      </c>
+      <c r="K54" t="s">
         <v>35</v>
       </c>
-      <c r="C54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" t="n">
-        <v>346557</v>
-      </c>
-      <c r="F54" t="n">
-        <v>346705</v>
-      </c>
-      <c r="G54" t="n">
-        <v>346705</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.204706953929904</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.20471275382805</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.20471275382805</v>
-      </c>
-      <c r="K54" t="s">
-        <v>16</v>
-      </c>
       <c r="L54" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M54" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
@@ -5806,32 +6014,38 @@
         <v>2023</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E55" t="n">
-        <v>65107</v>
-      </c>
-      <c r="F55"/>
+        <v>11690</v>
+      </c>
+      <c r="F55" t="n">
+        <v>23945</v>
+      </c>
       <c r="G55" t="n">
-        <v>73546</v>
+        <v>10881</v>
       </c>
       <c r="H55" t="n">
-        <v>0.187868085192335</v>
-      </c>
-      <c r="I55"/>
+        <v>0.033731824779185</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0690644784470948</v>
+      </c>
       <c r="J55" t="n">
-        <v>0.212128466563793</v>
+        <v>0.0313840296505675</v>
       </c>
       <c r="K55" t="s">
         <v>16</v>
       </c>
-      <c r="L55"/>
+      <c r="L55" t="s">
+        <v>16</v>
+      </c>
       <c r="M55" t="s">
         <v>16</v>
       </c>
@@ -5841,31 +6055,31 @@
         <v>2023</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E56" t="n">
-        <v>76797</v>
+        <v>208095</v>
       </c>
       <c r="F56" t="n">
-        <v>23945</v>
+        <v>239779</v>
       </c>
       <c r="G56" t="n">
-        <v>84427</v>
+        <v>202467</v>
       </c>
       <c r="H56" t="n">
-        <v>0.22159990997152</v>
+        <v>0.600463992936227</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0690644784470948</v>
+        <v>0.691593718002336</v>
       </c>
       <c r="J56" t="n">
-        <v>0.243512496214361</v>
+        <v>0.583974848934974</v>
       </c>
       <c r="K56" t="s">
         <v>16</v>
@@ -5882,31 +6096,31 @@
         <v>2023</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E57" t="n">
-        <v>138462</v>
+        <v>346557</v>
       </c>
       <c r="F57" t="n">
-        <v>106926</v>
+        <v>346705</v>
       </c>
       <c r="G57" t="n">
-        <v>144238</v>
+        <v>346705</v>
       </c>
       <c r="H57" t="n">
-        <v>0.399365454781442</v>
+        <v>0.204706953929904</v>
       </c>
       <c r="I57" t="n">
-        <v>0.308406281997664</v>
+        <v>0.20471275382805</v>
       </c>
       <c r="J57" t="n">
-        <v>0.416025151065026</v>
+        <v>0.20471275382805</v>
       </c>
       <c r="K57" t="s">
         <v>16</v>
@@ -5926,35 +6140,29 @@
         <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E58" t="n">
-        <v>883</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1762</v>
-      </c>
+        <v>65107</v>
+      </c>
+      <c r="F58"/>
       <c r="G58" t="n">
-        <v>827</v>
+        <v>73546</v>
       </c>
       <c r="H58" t="n">
-        <v>0.00283290663278728</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.00565056906553955</v>
-      </c>
+        <v>0.187868085192335</v>
+      </c>
+      <c r="I58"/>
       <c r="J58" t="n">
-        <v>0.00265211158751487</v>
+        <v>0.212128466563793</v>
       </c>
       <c r="K58" t="s">
         <v>16</v>
       </c>
-      <c r="L58" t="s">
-        <v>16</v>
-      </c>
+      <c r="L58"/>
       <c r="M58" t="s">
         <v>16</v>
       </c>
@@ -5967,28 +6175,28 @@
         <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E59" t="n">
-        <v>31416</v>
+        <v>76797</v>
       </c>
       <c r="F59" t="n">
-        <v>35664</v>
+        <v>23945</v>
       </c>
       <c r="G59" t="n">
-        <v>31154</v>
+        <v>84427</v>
       </c>
       <c r="H59" t="n">
-        <v>0.10079116056132</v>
+        <v>0.22159990997152</v>
       </c>
       <c r="I59" t="n">
-        <v>0.114371109621681</v>
+        <v>0.0690644784470948</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0999079617865034</v>
+        <v>0.243512496214361</v>
       </c>
       <c r="K59" t="s">
         <v>16</v>
@@ -6008,28 +6216,28 @@
         <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E60" t="n">
-        <v>7885</v>
+        <v>138462</v>
       </c>
       <c r="F60" t="n">
-        <v>10155</v>
+        <v>106926</v>
       </c>
       <c r="G60" t="n">
-        <v>7860</v>
+        <v>144238</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0252972466585818</v>
+        <v>0.399365454781442</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0325661344271022</v>
+        <v>0.308406281997664</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0252062842537689</v>
+        <v>0.416025151065026</v>
       </c>
       <c r="K60" t="s">
         <v>16</v>
@@ -6049,28 +6257,28 @@
         <v>36</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E61" t="n">
-        <v>18304</v>
+        <v>281450</v>
       </c>
       <c r="F61" t="n">
-        <v>24871</v>
+        <v>346705</v>
       </c>
       <c r="G61" t="n">
-        <v>17861</v>
+        <v>273159</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0587242616155588</v>
+        <v>0.812131914807665</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0797589689154563</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0.0572785550962553</v>
+        <v>0.787871533436207</v>
       </c>
       <c r="K61" t="s">
         <v>16</v>
@@ -6087,32 +6295,38 @@
         <v>2023</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E62" t="n">
-        <v>39624</v>
-      </c>
-      <c r="F62"/>
+        <v>883</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1762</v>
+      </c>
       <c r="G62" t="n">
-        <v>44784</v>
+        <v>827</v>
       </c>
       <c r="H62" t="n">
-        <v>0.12712467997459</v>
-      </c>
-      <c r="I62"/>
+        <v>0.00283290663278728</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.00565056906553955</v>
+      </c>
       <c r="J62" t="n">
-        <v>0.143618095931398</v>
+        <v>0.00265211158751487</v>
       </c>
       <c r="K62" t="s">
         <v>16</v>
       </c>
-      <c r="L62"/>
+      <c r="L62" t="s">
+        <v>16</v>
+      </c>
       <c r="M62" t="s">
         <v>16</v>
       </c>
@@ -6122,32 +6336,38 @@
         <v>2023</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
         <v>38</v>
       </c>
-      <c r="D63" t="s">
-        <v>37</v>
-      </c>
       <c r="E63" t="n">
-        <v>6504</v>
-      </c>
-      <c r="F63"/>
+        <v>31416</v>
+      </c>
+      <c r="F63" t="n">
+        <v>35664</v>
+      </c>
       <c r="G63" t="n">
-        <v>7267</v>
+        <v>31154</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0208666191841999</v>
-      </c>
-      <c r="I63"/>
+        <v>0.10079116056132</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.114371109621681</v>
+      </c>
       <c r="J63" t="n">
-        <v>0.0233045887623586</v>
+        <v>0.0999079617865034</v>
       </c>
       <c r="K63" t="s">
         <v>16</v>
       </c>
-      <c r="L63"/>
+      <c r="L63" t="s">
+        <v>16</v>
+      </c>
       <c r="M63" t="s">
         <v>16</v>
       </c>
@@ -6157,40 +6377,40 @@
         <v>2023</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E64" t="n">
-        <v>573</v>
+        <v>7885</v>
       </c>
       <c r="F64" t="n">
-        <v>883</v>
+        <v>10155</v>
       </c>
       <c r="G64" t="n">
-        <v>539</v>
+        <v>7860</v>
       </c>
       <c r="H64" t="n">
-        <v>0.00183834145026853</v>
+        <v>0.0252972466585818</v>
       </c>
       <c r="I64" t="n">
-        <v>0.00283169834555699</v>
+        <v>0.0325661344271022</v>
       </c>
       <c r="J64" t="n">
-        <v>0.0017285225461554</v>
+        <v>0.0252062842537689</v>
       </c>
       <c r="K64" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="L64" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M64" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
@@ -6198,40 +6418,40 @@
         <v>2023</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E65" t="n">
-        <v>1359</v>
+        <v>18304</v>
       </c>
       <c r="F65" t="n">
-        <v>1835</v>
+        <v>24871</v>
       </c>
       <c r="G65" t="n">
-        <v>1333</v>
+        <v>17861</v>
       </c>
       <c r="H65" t="n">
-        <v>0.00436004542917092</v>
+        <v>0.0587242616155588</v>
       </c>
       <c r="I65" t="n">
-        <v>0.00588467323227302</v>
+        <v>0.0797589689154563</v>
       </c>
       <c r="J65" t="n">
-        <v>0.00427480622268117</v>
+        <v>0.0572785550962553</v>
       </c>
       <c r="K65" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="L65" t="s">
         <v>16</v>
       </c>
       <c r="M65" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
@@ -6239,38 +6459,32 @@
         <v>2023</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E66" t="n">
-        <v>7378</v>
-      </c>
-      <c r="F66" t="n">
-        <v>14299</v>
-      </c>
+        <v>39624</v>
+      </c>
+      <c r="F66"/>
       <c r="G66" t="n">
-        <v>7100</v>
+        <v>44784</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0236706513439463</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.0458555545222191</v>
-      </c>
+        <v>0.12712467997459</v>
+      </c>
+      <c r="I66"/>
       <c r="J66" t="n">
-        <v>0.0227690353946259</v>
+        <v>0.143618095931398</v>
       </c>
       <c r="K66" t="s">
         <v>16</v>
       </c>
-      <c r="L66" t="s">
-        <v>16</v>
-      </c>
+      <c r="L66"/>
       <c r="M66" t="s">
         <v>16</v>
       </c>
@@ -6280,38 +6494,32 @@
         <v>2023</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E67" t="n">
-        <v>197768</v>
-      </c>
-      <c r="F67" t="n">
-        <v>222358</v>
-      </c>
+        <v>6504</v>
+      </c>
+      <c r="F67"/>
       <c r="G67" t="n">
-        <v>193102</v>
+        <v>7267</v>
       </c>
       <c r="H67" t="n">
-        <v>0.634494087149576</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.713081291870172</v>
-      </c>
+        <v>0.0208666191841999</v>
+      </c>
+      <c r="I67"/>
       <c r="J67" t="n">
-        <v>0.619260038418739</v>
+        <v>0.0233045887623586</v>
       </c>
       <c r="K67" t="s">
         <v>16</v>
       </c>
-      <c r="L67" t="s">
-        <v>16</v>
-      </c>
+      <c r="L67"/>
       <c r="M67" t="s">
         <v>16</v>
       </c>
@@ -6321,40 +6529,40 @@
         <v>2023</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E68" t="n">
-        <v>311694</v>
+        <v>573</v>
       </c>
       <c r="F68" t="n">
-        <v>311827</v>
+        <v>883</v>
       </c>
       <c r="G68" t="n">
-        <v>311827</v>
+        <v>539</v>
       </c>
       <c r="H68" t="n">
-        <v>0.184113808978689</v>
+        <v>0.00183834145026853</v>
       </c>
       <c r="I68" t="n">
-        <v>0.184118959599484</v>
+        <v>0.00283169834555699</v>
       </c>
       <c r="J68" t="n">
-        <v>0.184118959599484</v>
+        <v>0.0017285225461554</v>
       </c>
       <c r="K68" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L68" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M68" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69">
@@ -6362,34 +6570,40 @@
         <v>2023</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E69" t="n">
-        <v>46128</v>
-      </c>
-      <c r="F69"/>
+        <v>1359</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1835</v>
+      </c>
       <c r="G69" t="n">
-        <v>52051</v>
+        <v>1333</v>
       </c>
       <c r="H69" t="n">
-        <v>0.14799129915879</v>
-      </c>
-      <c r="I69"/>
+        <v>0.00436004542917092</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.00588467323227302</v>
+      </c>
       <c r="J69" t="n">
-        <v>0.166922684693756</v>
+        <v>0.00427480622268117</v>
       </c>
       <c r="K69" t="s">
-        <v>16</v>
-      </c>
-      <c r="L69"/>
+        <v>35</v>
+      </c>
+      <c r="L69" t="s">
+        <v>16</v>
+      </c>
       <c r="M69" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70">
@@ -6397,31 +6611,31 @@
         <v>2023</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E70" t="n">
-        <v>53506</v>
+        <v>7378</v>
       </c>
       <c r="F70" t="n">
         <v>14299</v>
       </c>
       <c r="G70" t="n">
-        <v>59151</v>
+        <v>7100</v>
       </c>
       <c r="H70" t="n">
-        <v>0.171661950502737</v>
+        <v>0.0236706513439463</v>
       </c>
       <c r="I70" t="n">
         <v>0.0458555545222191</v>
       </c>
       <c r="J70" t="n">
-        <v>0.189691720088382</v>
+        <v>0.0227690353946259</v>
       </c>
       <c r="K70" t="s">
         <v>16</v>
@@ -6438,39 +6652,238 @@
         <v>2023</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" t="n">
+        <v>197768</v>
+      </c>
+      <c r="F71" t="n">
+        <v>222358</v>
+      </c>
+      <c r="G71" t="n">
+        <v>193102</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.634494087149576</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.713081291870172</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.619260038418739</v>
+      </c>
+      <c r="K71" t="s">
+        <v>16</v>
+      </c>
+      <c r="L71" t="s">
+        <v>16</v>
+      </c>
+      <c r="M71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" t="n">
+        <v>311694</v>
+      </c>
+      <c r="F72" t="n">
+        <v>311827</v>
+      </c>
+      <c r="G72" t="n">
+        <v>311827</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.184113808978689</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.184118959599484</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.184118959599484</v>
+      </c>
+      <c r="K72" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" t="n">
+        <v>46128</v>
+      </c>
+      <c r="F73"/>
+      <c r="G73" t="n">
+        <v>52051</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.14799129915879</v>
+      </c>
+      <c r="I73"/>
+      <c r="J73" t="n">
+        <v>0.166922684693756</v>
+      </c>
+      <c r="K73" t="s">
+        <v>16</v>
+      </c>
+      <c r="L73"/>
+      <c r="M73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" t="n">
+        <v>53506</v>
+      </c>
+      <c r="F74" t="n">
+        <v>14299</v>
+      </c>
+      <c r="G74" t="n">
+        <v>59151</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.171661950502737</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.0458555545222191</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.189691720088382</v>
+      </c>
+      <c r="K74" t="s">
+        <v>16</v>
+      </c>
+      <c r="L74" t="s">
+        <v>16</v>
+      </c>
+      <c r="M74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" t="s">
         <v>31</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D75" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" t="n">
+        <v>113926</v>
+      </c>
+      <c r="F75" t="n">
+        <v>89469</v>
+      </c>
+      <c r="G75" t="n">
+        <v>118725</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.36535001779833</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.286918708129828</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.380739961581261</v>
+      </c>
+      <c r="K75" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" t="s">
+        <v>16</v>
+      </c>
+      <c r="M75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B76" t="s">
         <v>37</v>
       </c>
-      <c r="E71" t="n">
-        <v>113926</v>
-      </c>
-      <c r="F71" t="n">
-        <v>89469</v>
-      </c>
-      <c r="G71" t="n">
-        <v>118725</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.36535001779833</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.286918708129828</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.380739961581261</v>
-      </c>
-      <c r="K71" t="s">
-        <v>16</v>
-      </c>
-      <c r="L71" t="s">
-        <v>16</v>
-      </c>
-      <c r="M71" t="s">
+      <c r="C76" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" t="n">
+        <v>265566</v>
+      </c>
+      <c r="F76" t="n">
+        <v>311827</v>
+      </c>
+      <c r="G76" t="n">
+        <v>259776</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.85200870084121</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.833077315306244</v>
+      </c>
+      <c r="K76" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76" t="s">
+        <v>16</v>
+      </c>
+      <c r="M76" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6540,7 +6953,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
         <v>4768</v>
@@ -6581,7 +6994,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="n">
         <v>205487</v>
@@ -6622,7 +7035,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
         <v>76161</v>
@@ -6663,7 +7076,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" t="n">
         <v>98130</v>
@@ -6701,10 +7114,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
         <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
       </c>
       <c r="E6" t="n">
         <v>271435</v>
@@ -6739,7 +7152,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
         <v>7485</v>
@@ -6780,7 +7193,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" t="n">
         <v>7048</v>
@@ -6821,7 +7234,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="n">
         <v>50366</v>
@@ -6862,7 +7275,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
         <v>972062</v>
@@ -6903,7 +7316,7 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" t="n">
         <v>1692942</v>
@@ -6944,7 +7357,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" t="n">
         <v>271435</v>
@@ -6979,7 +7392,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" t="n">
         <v>321801</v>
@@ -7020,7 +7433,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" t="n">
         <v>720880</v>
@@ -7055,31 +7468,31 @@
         <v>2023</v>
       </c>
       <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" t="n">
-        <v>1869</v>
+        <v>1421507</v>
       </c>
       <c r="F15" t="n">
-        <v>3157</v>
+        <v>1693617</v>
       </c>
       <c r="G15" t="n">
-        <v>1663</v>
+        <v>1393583</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0020152094944509</v>
+        <v>0.839666686750048</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00340259597487015</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0017923715889164</v>
+        <v>0.822844244005581</v>
       </c>
       <c r="K15" t="s">
         <v>16</v>
@@ -7096,31 +7509,31 @@
         <v>2023</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" t="n">
-        <v>154892</v>
+        <v>1869</v>
       </c>
       <c r="F16" t="n">
-        <v>173743</v>
+        <v>3157</v>
       </c>
       <c r="G16" t="n">
-        <v>153280</v>
+        <v>1663</v>
       </c>
       <c r="H16" t="n">
-        <v>0.167009004288116</v>
+        <v>0.0020152094944509</v>
       </c>
       <c r="I16" t="n">
-        <v>0.187259180380698</v>
+        <v>0.00340259597487015</v>
       </c>
       <c r="J16" t="n">
-        <v>0.165204279704814</v>
+        <v>0.0017923715889164</v>
       </c>
       <c r="K16" t="s">
         <v>16</v>
@@ -7137,31 +7550,31 @@
         <v>2023</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" t="n">
-        <v>48486</v>
+        <v>154892</v>
       </c>
       <c r="F17" t="n">
-        <v>54290</v>
+        <v>173743</v>
       </c>
       <c r="G17" t="n">
-        <v>47498</v>
+        <v>153280</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0522789981529942</v>
+        <v>0.167009004288116</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0585134417091228</v>
+        <v>0.187259180380698</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0511930641794053</v>
+        <v>0.165204279704814</v>
       </c>
       <c r="K17" t="s">
         <v>16</v>
@@ -7178,31 +7591,31 @@
         <v>2023</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" t="n">
-        <v>54181</v>
+        <v>48486</v>
       </c>
       <c r="F18" t="n">
-        <v>74084</v>
+        <v>54290</v>
       </c>
       <c r="G18" t="n">
-        <v>53533</v>
+        <v>47498</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0584195107644965</v>
+        <v>0.0522789981529942</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0798472981318595</v>
+        <v>0.0585134417091228</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0576975515751422</v>
+        <v>0.0511930641794053</v>
       </c>
       <c r="K18" t="s">
         <v>16</v>
@@ -7219,32 +7632,38 @@
         <v>2023</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
         <v>40</v>
       </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
       <c r="E19" t="n">
-        <v>141589</v>
-      </c>
-      <c r="F19"/>
+        <v>54181</v>
+      </c>
+      <c r="F19" t="n">
+        <v>74084</v>
+      </c>
       <c r="G19" t="n">
-        <v>153644</v>
+        <v>53533</v>
       </c>
       <c r="H19" t="n">
-        <v>0.152665327506585</v>
-      </c>
-      <c r="I19"/>
+        <v>0.0584195107644965</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0798472981318595</v>
+      </c>
       <c r="J19" t="n">
-        <v>0.165596596757349</v>
+        <v>0.0576975515751422</v>
       </c>
       <c r="K19" t="s">
         <v>16</v>
       </c>
-      <c r="L19"/>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
       <c r="M19" t="s">
         <v>16</v>
       </c>
@@ -7254,38 +7673,32 @@
         <v>2023</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" t="n">
-        <v>3752</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5077</v>
-      </c>
+        <v>141589</v>
+      </c>
+      <c r="F20"/>
       <c r="G20" t="n">
-        <v>3477</v>
+        <v>153644</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00404551419110742</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.00547196064758181</v>
-      </c>
+        <v>0.152665327506585</v>
+      </c>
+      <c r="I20"/>
       <c r="J20" t="n">
-        <v>0.00374749008698876</v>
+        <v>0.165596596757349</v>
       </c>
       <c r="K20" t="s">
         <v>16</v>
       </c>
-      <c r="L20" t="s">
-        <v>16</v>
-      </c>
+      <c r="L20"/>
       <c r="M20" t="s">
         <v>16</v>
       </c>
@@ -7295,31 +7708,31 @@
         <v>2023</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" t="n">
-        <v>3620</v>
+        <v>3752</v>
       </c>
       <c r="F21" t="n">
-        <v>4479</v>
+        <v>5077</v>
       </c>
       <c r="G21" t="n">
-        <v>3591</v>
+        <v>3477</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00390318799888295</v>
+        <v>0.00404551419110742</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00482743977556016</v>
+        <v>0.00547196064758181</v>
       </c>
       <c r="J21" t="n">
-        <v>0.00387035861443102</v>
+        <v>0.00374749008698876</v>
       </c>
       <c r="K21" t="s">
         <v>16</v>
@@ -7336,31 +7749,31 @@
         <v>2023</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="n">
-        <v>28192</v>
+        <v>3620</v>
       </c>
       <c r="F22" t="n">
-        <v>49477</v>
+        <v>4479</v>
       </c>
       <c r="G22" t="n">
-        <v>27156</v>
+        <v>3591</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0303974243272122</v>
+        <v>0.00390318799888295</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0533260187040388</v>
+        <v>0.00482743977556016</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0292685765896655</v>
+        <v>0.00387035861443102</v>
       </c>
       <c r="K22" t="s">
         <v>16</v>
@@ -7377,31 +7790,31 @@
         <v>2023</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E23" t="n">
-        <v>490866</v>
+        <v>28192</v>
       </c>
       <c r="F23" t="n">
-        <v>563514</v>
+        <v>49477</v>
       </c>
       <c r="G23" t="n">
-        <v>483979</v>
+        <v>27156</v>
       </c>
       <c r="H23" t="n">
-        <v>0.529265823276155</v>
+        <v>0.0303974243272122</v>
       </c>
       <c r="I23" t="n">
-        <v>0.607352064676268</v>
+        <v>0.0533260187040388</v>
       </c>
       <c r="J23" t="n">
-        <v>0.521629710903288</v>
+        <v>0.0292685765896655</v>
       </c>
       <c r="K23" t="s">
         <v>16</v>
@@ -7418,31 +7831,31 @@
         <v>2023</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E24" t="n">
-        <v>927447</v>
+        <v>490866</v>
       </c>
       <c r="F24" t="n">
-        <v>927821</v>
+        <v>563514</v>
       </c>
       <c r="G24" t="n">
-        <v>927821</v>
+        <v>483979</v>
       </c>
       <c r="H24" t="n">
-        <v>0.547831526419688</v>
+        <v>0.529265823276155</v>
       </c>
       <c r="I24" t="n">
-        <v>0.547834014420025</v>
+        <v>0.607352064676268</v>
       </c>
       <c r="J24" t="n">
-        <v>0.547834014420025</v>
+        <v>0.521629710903288</v>
       </c>
       <c r="K24" t="s">
         <v>16</v>
@@ -7459,32 +7872,38 @@
         <v>2023</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E25" t="n">
-        <v>141589</v>
-      </c>
-      <c r="F25"/>
+        <v>927447</v>
+      </c>
+      <c r="F25" t="n">
+        <v>927821</v>
+      </c>
       <c r="G25" t="n">
-        <v>153644</v>
+        <v>927821</v>
       </c>
       <c r="H25" t="n">
-        <v>0.152665327506585</v>
-      </c>
-      <c r="I25"/>
+        <v>0.547831526419688</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.547834014420025</v>
+      </c>
       <c r="J25" t="n">
-        <v>0.165596596757349</v>
+        <v>0.547834014420025</v>
       </c>
       <c r="K25" t="s">
         <v>16</v>
       </c>
-      <c r="L25"/>
+      <c r="L25" t="s">
+        <v>16</v>
+      </c>
       <c r="M25" t="s">
         <v>16</v>
       </c>
@@ -7494,38 +7913,32 @@
         <v>2023</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E26" t="n">
-        <v>169781</v>
-      </c>
-      <c r="F26" t="n">
-        <v>49477</v>
-      </c>
+        <v>141589</v>
+      </c>
+      <c r="F26"/>
       <c r="G26" t="n">
-        <v>180800</v>
+        <v>153644</v>
       </c>
       <c r="H26" t="n">
-        <v>0.183062751833797</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.0533260187040388</v>
-      </c>
+        <v>0.152665327506585</v>
+      </c>
+      <c r="I26"/>
       <c r="J26" t="n">
-        <v>0.194865173347014</v>
+        <v>0.165596596757349</v>
       </c>
       <c r="K26" t="s">
         <v>16</v>
       </c>
-      <c r="L26" t="s">
-        <v>16</v>
-      </c>
+      <c r="L26"/>
       <c r="M26" t="s">
         <v>16</v>
       </c>
@@ -7535,31 +7948,31 @@
         <v>2023</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E27" t="n">
-        <v>436581</v>
+        <v>169781</v>
       </c>
       <c r="F27" t="n">
-        <v>364307</v>
+        <v>49477</v>
       </c>
       <c r="G27" t="n">
-        <v>443842</v>
+        <v>180800</v>
       </c>
       <c r="H27" t="n">
-        <v>0.47054442613392</v>
+        <v>0.183062751833797</v>
       </c>
       <c r="I27" t="n">
-        <v>0.392647935323732</v>
+        <v>0.0533260187040388</v>
       </c>
       <c r="J27" t="n">
-        <v>0.478370289096712</v>
+        <v>0.194865173347014</v>
       </c>
       <c r="K27" t="s">
         <v>16</v>
@@ -7579,37 +7992,37 @@
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E28" t="n">
-        <v>614</v>
+        <v>436581</v>
       </c>
       <c r="F28" t="n">
-        <v>932</v>
+        <v>364307</v>
       </c>
       <c r="G28" t="n">
-        <v>601</v>
+        <v>443842</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00572526201932043</v>
+        <v>0.47054442613392</v>
       </c>
       <c r="I28" t="n">
-        <v>0.00868884248210024</v>
+        <v>0.392647935323732</v>
       </c>
       <c r="J28" t="n">
-        <v>0.00560299821002387</v>
+        <v>0.478370289096712</v>
       </c>
       <c r="K28" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
       </c>
       <c r="M28" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -7620,28 +8033,28 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" t="n">
-        <v>3104</v>
+        <v>785858</v>
       </c>
       <c r="F29" t="n">
-        <v>4223</v>
+        <v>927821</v>
       </c>
       <c r="G29" t="n">
-        <v>2998</v>
+        <v>774177</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0289433441497893</v>
+        <v>0.847334672493415</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0393701521479714</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0.02794973150358</v>
+        <v>0.834403403242651</v>
       </c>
       <c r="K29" t="s">
         <v>16</v>
@@ -7658,40 +8071,40 @@
         <v>2023</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30" t="n">
-        <v>1586</v>
+        <v>614</v>
       </c>
       <c r="F30" t="n">
-        <v>2551</v>
+        <v>932</v>
       </c>
       <c r="G30" t="n">
-        <v>1560</v>
+        <v>601</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0147887061280818</v>
+        <v>0.00572526201932043</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0237824433174224</v>
+        <v>0.00868884248210024</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0145435560859189</v>
+        <v>0.00560299821002387</v>
       </c>
       <c r="K30" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
       </c>
       <c r="M30" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -7699,31 +8112,31 @@
         <v>2023</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E31" t="n">
-        <v>3936</v>
+        <v>3104</v>
       </c>
       <c r="F31" t="n">
-        <v>7211</v>
+        <v>4223</v>
       </c>
       <c r="G31" t="n">
-        <v>3903</v>
+        <v>2998</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0367013539218977</v>
+        <v>0.0289433441497893</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0672266557279236</v>
+        <v>0.0393701521479714</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0363868585918854</v>
+        <v>0.02794973150358</v>
       </c>
       <c r="K31" t="s">
         <v>16</v>
@@ -7740,32 +8153,38 @@
         <v>2023</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
         <v>40</v>
       </c>
-      <c r="D32" t="s">
-        <v>39</v>
-      </c>
       <c r="E32" t="n">
-        <v>18611</v>
-      </c>
-      <c r="F32"/>
+        <v>1586</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2551</v>
+      </c>
       <c r="G32" t="n">
-        <v>20793</v>
+        <v>1560</v>
       </c>
       <c r="H32" t="n">
-        <v>0.173538845996046</v>
-      </c>
-      <c r="I32"/>
+        <v>0.0147887061280818</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0237824433174224</v>
+      </c>
       <c r="J32" t="n">
-        <v>0.193848821599045</v>
+        <v>0.0145435560859189</v>
       </c>
       <c r="K32" t="s">
         <v>16</v>
       </c>
-      <c r="L32"/>
+      <c r="L32" t="s">
+        <v>16</v>
+      </c>
       <c r="M32" t="s">
         <v>16</v>
       </c>
@@ -7775,40 +8194,40 @@
         <v>2023</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E33" t="n">
-        <v>322</v>
+        <v>3936</v>
       </c>
       <c r="F33" t="n">
-        <v>763</v>
+        <v>7211</v>
       </c>
       <c r="G33" t="n">
-        <v>322</v>
+        <v>3903</v>
       </c>
       <c r="H33" t="n">
-        <v>0.00300249897430159</v>
+        <v>0.0367013539218977</v>
       </c>
       <c r="I33" t="n">
-        <v>0.00711329057279236</v>
+        <v>0.0672266557279236</v>
       </c>
       <c r="J33" t="n">
-        <v>0.00300193914081146</v>
+        <v>0.0363868585918854</v>
       </c>
       <c r="K33" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
       </c>
       <c r="M33" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -7816,40 +8235,34 @@
         <v>2023</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E34" t="n">
-        <v>632</v>
-      </c>
-      <c r="F34" t="n">
-        <v>733</v>
-      </c>
+        <v>18611</v>
+      </c>
+      <c r="F34"/>
       <c r="G34" t="n">
-        <v>632</v>
+        <v>20793</v>
       </c>
       <c r="H34" t="n">
-        <v>0.00589310357689008</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.00683360680190931</v>
-      </c>
+        <v>0.173538845996046</v>
+      </c>
+      <c r="I34"/>
       <c r="J34" t="n">
-        <v>0.00589200477326969</v>
+        <v>0.193848821599045</v>
       </c>
       <c r="K34" t="s">
-        <v>34</v>
-      </c>
-      <c r="L34" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L34"/>
       <c r="M34" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -7857,40 +8270,40 @@
         <v>2023</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E35" t="n">
-        <v>3106</v>
+        <v>322</v>
       </c>
       <c r="F35" t="n">
-        <v>5753</v>
+        <v>763</v>
       </c>
       <c r="G35" t="n">
-        <v>2967</v>
+        <v>322</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0289619932117414</v>
+        <v>0.00300249897430159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0536340244630072</v>
+        <v>0.00711329057279236</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0276607249403341</v>
+        <v>0.00300193914081146</v>
       </c>
       <c r="K35" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L35" t="s">
         <v>16</v>
       </c>
       <c r="M35" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
@@ -7898,40 +8311,40 @@
         <v>2023</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E36" t="n">
-        <v>75333</v>
+        <v>632</v>
       </c>
       <c r="F36" t="n">
-        <v>85098</v>
+        <v>733</v>
       </c>
       <c r="G36" t="n">
-        <v>73488</v>
+        <v>632</v>
       </c>
       <c r="H36" t="n">
-        <v>0.702444892021931</v>
+        <v>0.00589310357689008</v>
       </c>
       <c r="I36" t="n">
-        <v>0.793350984486873</v>
+        <v>0.00683360680190931</v>
       </c>
       <c r="J36" t="n">
-        <v>0.685113365155131</v>
+        <v>0.00589200477326969</v>
       </c>
       <c r="K36" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M36" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
@@ -7939,31 +8352,31 @@
         <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E37" t="n">
-        <v>107244</v>
+        <v>3106</v>
       </c>
       <c r="F37" t="n">
-        <v>107264</v>
+        <v>5753</v>
       </c>
       <c r="G37" t="n">
-        <v>107264</v>
+        <v>2967</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0633477106717182</v>
+        <v>0.0289619932117414</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0633342721524406</v>
+        <v>0.0536340244630072</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0633342721524406</v>
+        <v>0.0276607249403341</v>
       </c>
       <c r="K37" t="s">
         <v>16</v>
@@ -7980,32 +8393,38 @@
         <v>2023</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="n">
-        <v>18611</v>
-      </c>
-      <c r="F38"/>
+        <v>75333</v>
+      </c>
+      <c r="F38" t="n">
+        <v>85098</v>
+      </c>
       <c r="G38" t="n">
-        <v>20793</v>
+        <v>73488</v>
       </c>
       <c r="H38" t="n">
-        <v>0.173538845996046</v>
-      </c>
-      <c r="I38"/>
+        <v>0.702444892021931</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.793350984486873</v>
+      </c>
       <c r="J38" t="n">
-        <v>0.193848821599045</v>
+        <v>0.685113365155131</v>
       </c>
       <c r="K38" t="s">
         <v>16</v>
       </c>
-      <c r="L38"/>
+      <c r="L38" t="s">
+        <v>16</v>
+      </c>
       <c r="M38" t="s">
         <v>16</v>
       </c>
@@ -8015,31 +8434,31 @@
         <v>2023</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E39" t="n">
-        <v>21717</v>
+        <v>107244</v>
       </c>
       <c r="F39" t="n">
-        <v>5753</v>
+        <v>107264</v>
       </c>
       <c r="G39" t="n">
-        <v>23760</v>
+        <v>107264</v>
       </c>
       <c r="H39" t="n">
-        <v>0.202500839207788</v>
+        <v>0.0633477106717182</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0536340244630072</v>
+        <v>0.0633342721524406</v>
       </c>
       <c r="J39" t="n">
-        <v>0.221509546539379</v>
+        <v>0.0633342721524406</v>
       </c>
       <c r="K39" t="s">
         <v>16</v>
@@ -8056,38 +8475,32 @@
         <v>2023</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E40" t="n">
-        <v>31911</v>
-      </c>
-      <c r="F40" t="n">
-        <v>22166</v>
-      </c>
+        <v>18611</v>
+      </c>
+      <c r="F40"/>
       <c r="G40" t="n">
-        <v>33776</v>
+        <v>20793</v>
       </c>
       <c r="H40" t="n">
-        <v>0.297499627088305</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.206649015513127</v>
-      </c>
+        <v>0.173538845996046</v>
+      </c>
+      <c r="I40"/>
       <c r="J40" t="n">
-        <v>0.314886634844869</v>
+        <v>0.193848821599045</v>
       </c>
       <c r="K40" t="s">
         <v>16</v>
       </c>
-      <c r="L40" t="s">
-        <v>16</v>
-      </c>
+      <c r="L40"/>
       <c r="M40" t="s">
         <v>16</v>
       </c>
@@ -8097,31 +8510,31 @@
         <v>2023</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E41" t="n">
-        <v>1402</v>
+        <v>21717</v>
       </c>
       <c r="F41" t="n">
-        <v>2415</v>
+        <v>5753</v>
       </c>
       <c r="G41" t="n">
-        <v>1350</v>
+        <v>23760</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0040455105509339</v>
+        <v>0.202500839207788</v>
       </c>
       <c r="I41" t="n">
-        <v>0.00696557592189325</v>
+        <v>0.0536340244630072</v>
       </c>
       <c r="J41" t="n">
-        <v>0.00389380020478505</v>
+        <v>0.221509546539379</v>
       </c>
       <c r="K41" t="s">
         <v>16</v>
@@ -8138,31 +8551,31 @@
         <v>2023</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E42" t="n">
-        <v>16075</v>
+        <v>31911</v>
       </c>
       <c r="F42" t="n">
-        <v>20777</v>
+        <v>22166</v>
       </c>
       <c r="G42" t="n">
-        <v>15419</v>
+        <v>33776</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0463848659816423</v>
+        <v>0.297499627088305</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0599270272998659</v>
+        <v>0.206649015513127</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0444729669315412</v>
+        <v>0.314886634844869</v>
       </c>
       <c r="K42" t="s">
         <v>16</v>
@@ -8179,31 +8592,31 @@
         <v>2023</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E43" t="n">
-        <v>18204</v>
+        <v>88633</v>
       </c>
       <c r="F43" t="n">
-        <v>22812</v>
+        <v>107264</v>
       </c>
       <c r="G43" t="n">
-        <v>17571</v>
+        <v>86471</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0525281555415127</v>
+        <v>0.826461154003954</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0657965705715233</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0506799728876134</v>
+        <v>0.806151178400955</v>
       </c>
       <c r="K43" t="s">
         <v>16</v>
@@ -8220,31 +8633,31 @@
         <v>2023</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E44" t="n">
-        <v>21709</v>
+        <v>1402</v>
       </c>
       <c r="F44" t="n">
-        <v>31649</v>
+        <v>2415</v>
       </c>
       <c r="G44" t="n">
-        <v>21365</v>
+        <v>1350</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0626419319188474</v>
+        <v>0.0040455105509339</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0912850982824015</v>
+        <v>0.00696557592189325</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0616229936112834</v>
+        <v>0.00389380020478505</v>
       </c>
       <c r="K44" t="s">
         <v>16</v>
@@ -8261,32 +8674,38 @@
         <v>2023</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
         <v>40</v>
       </c>
-      <c r="D45" t="s">
-        <v>39</v>
-      </c>
       <c r="E45" t="n">
-        <v>65107</v>
-      </c>
-      <c r="F45"/>
+        <v>16075</v>
+      </c>
+      <c r="F45" t="n">
+        <v>20777</v>
+      </c>
       <c r="G45" t="n">
-        <v>73546</v>
+        <v>15419</v>
       </c>
       <c r="H45" t="n">
-        <v>0.187868085192335</v>
-      </c>
-      <c r="I45"/>
+        <v>0.0463848659816423</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0599270272998659</v>
+      </c>
       <c r="J45" t="n">
-        <v>0.212128466563793</v>
+        <v>0.0444729669315412</v>
       </c>
       <c r="K45" t="s">
         <v>16</v>
       </c>
-      <c r="L45"/>
+      <c r="L45" t="s">
+        <v>16</v>
+      </c>
       <c r="M45" t="s">
         <v>16</v>
       </c>
@@ -8296,31 +8715,31 @@
         <v>2023</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E46" t="n">
-        <v>2838</v>
+        <v>18204</v>
       </c>
       <c r="F46" t="n">
-        <v>3668</v>
+        <v>22812</v>
       </c>
       <c r="G46" t="n">
-        <v>2765</v>
+        <v>17571</v>
       </c>
       <c r="H46" t="n">
-        <v>0.00818912906102027</v>
+        <v>0.0525281555415127</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0105795993712234</v>
+        <v>0.0657965705715233</v>
       </c>
       <c r="J46" t="n">
-        <v>0.00797507967868938</v>
+        <v>0.0506799728876134</v>
       </c>
       <c r="K46" t="s">
         <v>16</v>
@@ -8337,40 +8756,40 @@
         <v>2023</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E47" t="n">
-        <v>1437</v>
+        <v>21709</v>
       </c>
       <c r="F47" t="n">
-        <v>1660</v>
+        <v>31649</v>
       </c>
       <c r="G47" t="n">
-        <v>1341</v>
+        <v>21365</v>
       </c>
       <c r="H47" t="n">
-        <v>0.00414650403829673</v>
+        <v>0.0626419319188474</v>
       </c>
       <c r="I47" t="n">
-        <v>0.00478793210366161</v>
+        <v>0.0912850982824015</v>
       </c>
       <c r="J47" t="n">
-        <v>0.00386784153675315</v>
+        <v>0.0616229936112834</v>
       </c>
       <c r="K47" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="L47" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M47" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -8378,38 +8797,32 @@
         <v>2023</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E48" t="n">
-        <v>11690</v>
-      </c>
-      <c r="F48" t="n">
-        <v>23945</v>
-      </c>
+        <v>65107</v>
+      </c>
+      <c r="F48"/>
       <c r="G48" t="n">
-        <v>10881</v>
+        <v>73546</v>
       </c>
       <c r="H48" t="n">
-        <v>0.033731824779185</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.0690644784470948</v>
-      </c>
+        <v>0.187868085192335</v>
+      </c>
+      <c r="I48"/>
       <c r="J48" t="n">
-        <v>0.0313840296505675</v>
+        <v>0.212128466563793</v>
       </c>
       <c r="K48" t="s">
         <v>16</v>
       </c>
-      <c r="L48" t="s">
-        <v>16</v>
-      </c>
+      <c r="L48"/>
       <c r="M48" t="s">
         <v>16</v>
       </c>
@@ -8419,31 +8832,31 @@
         <v>2023</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E49" t="n">
-        <v>208095</v>
+        <v>2838</v>
       </c>
       <c r="F49" t="n">
-        <v>239779</v>
+        <v>3668</v>
       </c>
       <c r="G49" t="n">
-        <v>202467</v>
+        <v>2765</v>
       </c>
       <c r="H49" t="n">
-        <v>0.600463992936227</v>
+        <v>0.00818912906102027</v>
       </c>
       <c r="I49" t="n">
-        <v>0.691593718002336</v>
+        <v>0.0105795993712234</v>
       </c>
       <c r="J49" t="n">
-        <v>0.583974848934974</v>
+        <v>0.00797507967868938</v>
       </c>
       <c r="K49" t="s">
         <v>16</v>
@@ -8460,40 +8873,40 @@
         <v>2023</v>
       </c>
       <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1437</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1660</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1341</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.00414650403829673</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.00478793210366161</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.00386784153675315</v>
+      </c>
+      <c r="K50" t="s">
         <v>35</v>
       </c>
-      <c r="C50" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" t="n">
-        <v>346557</v>
-      </c>
-      <c r="F50" t="n">
-        <v>346705</v>
-      </c>
-      <c r="G50" t="n">
-        <v>346705</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.204706953929904</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.20471275382805</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.20471275382805</v>
-      </c>
-      <c r="K50" t="s">
-        <v>16</v>
-      </c>
       <c r="L50" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M50" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
@@ -8501,32 +8914,38 @@
         <v>2023</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E51" t="n">
-        <v>65107</v>
-      </c>
-      <c r="F51"/>
+        <v>11690</v>
+      </c>
+      <c r="F51" t="n">
+        <v>23945</v>
+      </c>
       <c r="G51" t="n">
-        <v>73546</v>
+        <v>10881</v>
       </c>
       <c r="H51" t="n">
-        <v>0.187868085192335</v>
-      </c>
-      <c r="I51"/>
+        <v>0.033731824779185</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0690644784470948</v>
+      </c>
       <c r="J51" t="n">
-        <v>0.212128466563793</v>
+        <v>0.0313840296505675</v>
       </c>
       <c r="K51" t="s">
         <v>16</v>
       </c>
-      <c r="L51"/>
+      <c r="L51" t="s">
+        <v>16</v>
+      </c>
       <c r="M51" t="s">
         <v>16</v>
       </c>
@@ -8536,31 +8955,31 @@
         <v>2023</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E52" t="n">
-        <v>76797</v>
+        <v>208095</v>
       </c>
       <c r="F52" t="n">
-        <v>23945</v>
+        <v>239779</v>
       </c>
       <c r="G52" t="n">
-        <v>84427</v>
+        <v>202467</v>
       </c>
       <c r="H52" t="n">
-        <v>0.22159990997152</v>
+        <v>0.600463992936227</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0690644784470948</v>
+        <v>0.691593718002336</v>
       </c>
       <c r="J52" t="n">
-        <v>0.243512496214361</v>
+        <v>0.583974848934974</v>
       </c>
       <c r="K52" t="s">
         <v>16</v>
@@ -8577,31 +8996,31 @@
         <v>2023</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E53" t="n">
-        <v>138462</v>
+        <v>346557</v>
       </c>
       <c r="F53" t="n">
-        <v>106926</v>
+        <v>346705</v>
       </c>
       <c r="G53" t="n">
-        <v>144238</v>
+        <v>346705</v>
       </c>
       <c r="H53" t="n">
-        <v>0.399365454781442</v>
+        <v>0.204706953929904</v>
       </c>
       <c r="I53" t="n">
-        <v>0.308406281997664</v>
+        <v>0.20471275382805</v>
       </c>
       <c r="J53" t="n">
-        <v>0.416025151065026</v>
+        <v>0.20471275382805</v>
       </c>
       <c r="K53" t="s">
         <v>16</v>
@@ -8621,35 +9040,29 @@
         <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E54" t="n">
-        <v>883</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1762</v>
-      </c>
+        <v>65107</v>
+      </c>
+      <c r="F54"/>
       <c r="G54" t="n">
-        <v>827</v>
+        <v>73546</v>
       </c>
       <c r="H54" t="n">
-        <v>0.00283290663278728</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.00565056906553955</v>
-      </c>
+        <v>0.187868085192335</v>
+      </c>
+      <c r="I54"/>
       <c r="J54" t="n">
-        <v>0.00265211158751487</v>
+        <v>0.212128466563793</v>
       </c>
       <c r="K54" t="s">
         <v>16</v>
       </c>
-      <c r="L54" t="s">
-        <v>16</v>
-      </c>
+      <c r="L54"/>
       <c r="M54" t="s">
         <v>16</v>
       </c>
@@ -8662,28 +9075,28 @@
         <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E55" t="n">
-        <v>31416</v>
+        <v>76797</v>
       </c>
       <c r="F55" t="n">
-        <v>35664</v>
+        <v>23945</v>
       </c>
       <c r="G55" t="n">
-        <v>31154</v>
+        <v>84427</v>
       </c>
       <c r="H55" t="n">
-        <v>0.10079116056132</v>
+        <v>0.22159990997152</v>
       </c>
       <c r="I55" t="n">
-        <v>0.114371109621681</v>
+        <v>0.0690644784470948</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0999079617865034</v>
+        <v>0.243512496214361</v>
       </c>
       <c r="K55" t="s">
         <v>16</v>
@@ -8703,28 +9116,28 @@
         <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E56" t="n">
-        <v>7885</v>
+        <v>138462</v>
       </c>
       <c r="F56" t="n">
-        <v>10155</v>
+        <v>106926</v>
       </c>
       <c r="G56" t="n">
-        <v>7860</v>
+        <v>144238</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0252972466585818</v>
+        <v>0.399365454781442</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0325661344271022</v>
+        <v>0.308406281997664</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0252062842537689</v>
+        <v>0.416025151065026</v>
       </c>
       <c r="K56" t="s">
         <v>16</v>
@@ -8744,28 +9157,28 @@
         <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E57" t="n">
-        <v>18304</v>
+        <v>281450</v>
       </c>
       <c r="F57" t="n">
-        <v>24871</v>
+        <v>346705</v>
       </c>
       <c r="G57" t="n">
-        <v>17861</v>
+        <v>273159</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0587242616155588</v>
+        <v>0.812131914807665</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0797589689154563</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0.0572785550962553</v>
+        <v>0.787871533436207</v>
       </c>
       <c r="K57" t="s">
         <v>16</v>
@@ -8782,32 +9195,38 @@
         <v>2023</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
         <v>40</v>
       </c>
-      <c r="D58" t="s">
-        <v>39</v>
-      </c>
       <c r="E58" t="n">
-        <v>46128</v>
-      </c>
-      <c r="F58"/>
+        <v>883</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1762</v>
+      </c>
       <c r="G58" t="n">
-        <v>52051</v>
+        <v>827</v>
       </c>
       <c r="H58" t="n">
-        <v>0.14799129915879</v>
-      </c>
-      <c r="I58"/>
+        <v>0.00283290663278728</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.00565056906553955</v>
+      </c>
       <c r="J58" t="n">
-        <v>0.166922684693756</v>
+        <v>0.00265211158751487</v>
       </c>
       <c r="K58" t="s">
         <v>16</v>
       </c>
-      <c r="L58"/>
+      <c r="L58" t="s">
+        <v>16</v>
+      </c>
       <c r="M58" t="s">
         <v>16</v>
       </c>
@@ -8817,40 +9236,40 @@
         <v>2023</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E59" t="n">
-        <v>573</v>
+        <v>31416</v>
       </c>
       <c r="F59" t="n">
-        <v>883</v>
+        <v>35664</v>
       </c>
       <c r="G59" t="n">
-        <v>539</v>
+        <v>31154</v>
       </c>
       <c r="H59" t="n">
-        <v>0.00183834145026853</v>
+        <v>0.10079116056132</v>
       </c>
       <c r="I59" t="n">
-        <v>0.00283169834555699</v>
+        <v>0.114371109621681</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0017285225461554</v>
+        <v>0.0999079617865034</v>
       </c>
       <c r="K59" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="L59" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M59" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
@@ -8858,40 +9277,40 @@
         <v>2023</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E60" t="n">
-        <v>1359</v>
+        <v>7885</v>
       </c>
       <c r="F60" t="n">
-        <v>1835</v>
+        <v>10155</v>
       </c>
       <c r="G60" t="n">
-        <v>1333</v>
+        <v>7860</v>
       </c>
       <c r="H60" t="n">
-        <v>0.00436004542917092</v>
+        <v>0.0252972466585818</v>
       </c>
       <c r="I60" t="n">
-        <v>0.00588467323227302</v>
+        <v>0.0325661344271022</v>
       </c>
       <c r="J60" t="n">
-        <v>0.00427480622268117</v>
+        <v>0.0252062842537689</v>
       </c>
       <c r="K60" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="L60" t="s">
         <v>16</v>
       </c>
       <c r="M60" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
@@ -8899,31 +9318,31 @@
         <v>2023</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E61" t="n">
-        <v>7378</v>
+        <v>18304</v>
       </c>
       <c r="F61" t="n">
-        <v>14299</v>
+        <v>24871</v>
       </c>
       <c r="G61" t="n">
-        <v>7100</v>
+        <v>17861</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0236706513439463</v>
+        <v>0.0587242616155588</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0458555545222191</v>
+        <v>0.0797589689154563</v>
       </c>
       <c r="J61" t="n">
-        <v>0.0227690353946259</v>
+        <v>0.0572785550962553</v>
       </c>
       <c r="K61" t="s">
         <v>16</v>
@@ -8940,38 +9359,32 @@
         <v>2023</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E62" t="n">
-        <v>197768</v>
-      </c>
-      <c r="F62" t="n">
-        <v>222358</v>
-      </c>
+        <v>46128</v>
+      </c>
+      <c r="F62"/>
       <c r="G62" t="n">
-        <v>193102</v>
+        <v>52051</v>
       </c>
       <c r="H62" t="n">
-        <v>0.634494087149576</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.713081291870172</v>
-      </c>
+        <v>0.14799129915879</v>
+      </c>
+      <c r="I62"/>
       <c r="J62" t="n">
-        <v>0.619260038418739</v>
+        <v>0.166922684693756</v>
       </c>
       <c r="K62" t="s">
         <v>16</v>
       </c>
-      <c r="L62" t="s">
-        <v>16</v>
-      </c>
+      <c r="L62"/>
       <c r="M62" t="s">
         <v>16</v>
       </c>
@@ -8981,40 +9394,40 @@
         <v>2023</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E63" t="n">
-        <v>311694</v>
+        <v>573</v>
       </c>
       <c r="F63" t="n">
-        <v>311827</v>
+        <v>883</v>
       </c>
       <c r="G63" t="n">
-        <v>311827</v>
+        <v>539</v>
       </c>
       <c r="H63" t="n">
-        <v>0.184113808978689</v>
+        <v>0.00183834145026853</v>
       </c>
       <c r="I63" t="n">
-        <v>0.184118959599484</v>
+        <v>0.00283169834555699</v>
       </c>
       <c r="J63" t="n">
-        <v>0.184118959599484</v>
+        <v>0.0017285225461554</v>
       </c>
       <c r="K63" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L63" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M63" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64">
@@ -9022,34 +9435,40 @@
         <v>2023</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E64" t="n">
-        <v>46128</v>
-      </c>
-      <c r="F64"/>
+        <v>1359</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1835</v>
+      </c>
       <c r="G64" t="n">
-        <v>52051</v>
+        <v>1333</v>
       </c>
       <c r="H64" t="n">
-        <v>0.14799129915879</v>
-      </c>
-      <c r="I64"/>
+        <v>0.00436004542917092</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.00588467323227302</v>
+      </c>
       <c r="J64" t="n">
-        <v>0.166922684693756</v>
+        <v>0.00427480622268117</v>
       </c>
       <c r="K64" t="s">
-        <v>16</v>
-      </c>
-      <c r="L64"/>
+        <v>35</v>
+      </c>
+      <c r="L64" t="s">
+        <v>16</v>
+      </c>
       <c r="M64" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65">
@@ -9057,31 +9476,31 @@
         <v>2023</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E65" t="n">
-        <v>53506</v>
+        <v>7378</v>
       </c>
       <c r="F65" t="n">
         <v>14299</v>
       </c>
       <c r="G65" t="n">
-        <v>59151</v>
+        <v>7100</v>
       </c>
       <c r="H65" t="n">
-        <v>0.171661950502737</v>
+        <v>0.0236706513439463</v>
       </c>
       <c r="I65" t="n">
         <v>0.0458555545222191</v>
       </c>
       <c r="J65" t="n">
-        <v>0.189691720088382</v>
+        <v>0.0227690353946259</v>
       </c>
       <c r="K65" t="s">
         <v>16</v>
@@ -9098,39 +9517,238 @@
         <v>2023</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C66" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" t="n">
+        <v>197768</v>
+      </c>
+      <c r="F66" t="n">
+        <v>222358</v>
+      </c>
+      <c r="G66" t="n">
+        <v>193102</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.634494087149576</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.713081291870172</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.619260038418739</v>
+      </c>
+      <c r="K66" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" t="s">
+        <v>16</v>
+      </c>
+      <c r="M66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" t="n">
+        <v>311694</v>
+      </c>
+      <c r="F67" t="n">
+        <v>311827</v>
+      </c>
+      <c r="G67" t="n">
+        <v>311827</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.184113808978689</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.184118959599484</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.184118959599484</v>
+      </c>
+      <c r="K67" t="s">
+        <v>16</v>
+      </c>
+      <c r="L67" t="s">
+        <v>16</v>
+      </c>
+      <c r="M67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" t="n">
+        <v>46128</v>
+      </c>
+      <c r="F68"/>
+      <c r="G68" t="n">
+        <v>52051</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.14799129915879</v>
+      </c>
+      <c r="I68"/>
+      <c r="J68" t="n">
+        <v>0.166922684693756</v>
+      </c>
+      <c r="K68" t="s">
+        <v>16</v>
+      </c>
+      <c r="L68"/>
+      <c r="M68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" t="n">
+        <v>53506</v>
+      </c>
+      <c r="F69" t="n">
+        <v>14299</v>
+      </c>
+      <c r="G69" t="n">
+        <v>59151</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.171661950502737</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0458555545222191</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.189691720088382</v>
+      </c>
+      <c r="K69" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69" t="s">
+        <v>16</v>
+      </c>
+      <c r="M69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" t="s">
         <v>31</v>
       </c>
-      <c r="D66" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66" t="n">
+      <c r="D70" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" t="n">
         <v>113926</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F70" t="n">
         <v>89469</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G70" t="n">
         <v>118725</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H70" t="n">
         <v>0.36535001779833</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I70" t="n">
         <v>0.286918708129828</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J70" t="n">
         <v>0.380739961581261</v>
       </c>
-      <c r="K66" t="s">
-        <v>16</v>
-      </c>
-      <c r="L66" t="s">
-        <v>16</v>
-      </c>
-      <c r="M66" t="s">
+      <c r="K70" t="s">
+        <v>16</v>
+      </c>
+      <c r="L70" t="s">
+        <v>16</v>
+      </c>
+      <c r="M70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" t="n">
+        <v>265566</v>
+      </c>
+      <c r="F71" t="n">
+        <v>311827</v>
+      </c>
+      <c r="G71" t="n">
+        <v>259776</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.85200870084121</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.833077315306244</v>
+      </c>
+      <c r="K71" t="s">
+        <v>16</v>
+      </c>
+      <c r="L71" t="s">
+        <v>16</v>
+      </c>
+      <c r="M71" t="s">
         <v>16</v>
       </c>
     </row>

--- a/household-count/data/household-count-by-re.xlsx
+++ b/household-count/data/household-count-by-re.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">DATA_YEAR</t>
   </si>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Region</t>
   </si>
   <si>
-    <t xml:space="preserve">American Indian or Alaskan Native alone</t>
+    <t xml:space="preserve">American Indian or Alaskan Native</t>
   </si>
   <si>
     <t xml:space="preserve">detail</t>
@@ -91,55 +91,55 @@
     <t xml:space="preserve">all households</t>
   </si>
   <si>
-    <t xml:space="preserve">Asian alone</t>
+    <t xml:space="preserve">Asian</t>
   </si>
   <si>
-    <t xml:space="preserve">Black or African American alone</t>
+    <t xml:space="preserve">Black or African American</t>
   </si>
   <si>
     <t xml:space="preserve">Hispanic or Latino</t>
   </si>
   <si>
-    <t xml:space="preserve">Native Hawaiian and Other Pacific Islander alone</t>
+    <t xml:space="preserve">Native Hawaiian or Pacific Islander</t>
   </si>
   <si>
-    <t xml:space="preserve">Some Other Race alone</t>
+    <t xml:space="preserve">Some Other Race</t>
   </si>
   <si>
     <t xml:space="preserve">Two or More Races</t>
   </si>
   <si>
-    <t xml:space="preserve">White alone</t>
+    <t xml:space="preserve">White</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial incl. Asian</t>
+    <t xml:space="preserve">MNAW</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial incl. Asian, white</t>
+    <t xml:space="preserve">Multirace incl. Asian</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial incl. white</t>
+    <t xml:space="preserve">Multirace incl. Asian, white</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial not Asian or white</t>
+    <t xml:space="preserve">Multirace incl. white</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Multirace PSRC</t>
+    <t xml:space="preserve">Multirace PSRC</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Single race PSRC</t>
+    <t xml:space="preserve">Single race PSRC</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Multirace Harvard</t>
+    <t xml:space="preserve">Multirace Harvard</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Single race Harvard</t>
+    <t xml:space="preserve">Single race Harvard</t>
   </si>
   <si>
-    <t xml:space="preserve">Total People of color</t>
+    <t xml:space="preserve">People of color</t>
   </si>
   <si>
     <t xml:space="preserve">King</t>
@@ -160,28 +160,10 @@
     <t xml:space="preserve">dichot</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial not white</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Indian or Alaskan Native</t>
+    <t xml:space="preserve">MNW</t>
   </si>
   <si>
     <t xml:space="preserve">single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black or African American</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Native Hawaiian or Pacific Islander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some Other Race</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White</t>
   </si>
   <si>
     <t xml:space="preserve">Multirace</t>
@@ -1151,31 +1133,31 @@
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
-        <v>23119</v>
+        <v>23456</v>
       </c>
       <c r="G11" t="n">
-        <v>25602</v>
+        <v>27790</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>0.013656108714888</v>
+        <v>0.0138551704665606</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0151167589838789</v>
+        <v>0.0164086685478476</v>
       </c>
       <c r="K11"/>
       <c r="L11" t="n">
-        <v>1540.05805784027</v>
+        <v>1811.76038841302</v>
       </c>
       <c r="M11" t="n">
-        <v>1682.71363064285</v>
+        <v>1913.19292066234</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>0.000906768769205212</v>
+        <v>0.00107010734625851</v>
       </c>
       <c r="P11" t="n">
-        <v>0.000990403192437759</v>
+        <v>0.00113208773789075</v>
       </c>
       <c r="Q11"/>
       <c r="R11" t="s">
@@ -1203,31 +1185,31 @@
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
-        <v>61491</v>
+        <v>23119</v>
       </c>
       <c r="G12" t="n">
-        <v>63533</v>
+        <v>25602</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="n">
-        <v>0.0363219767717973</v>
+        <v>0.013656108714888</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0375132039888593</v>
+        <v>0.0151167589838789</v>
       </c>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>1966.20010738162</v>
+        <v>1540.05805784027</v>
       </c>
       <c r="M12" t="n">
-        <v>2034.47598747196</v>
+        <v>1682.71363064285</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>0.00115178060555238</v>
+        <v>0.000906768769205212</v>
       </c>
       <c r="P12" t="n">
-        <v>0.00119086451254984</v>
+        <v>0.000990403192437759</v>
       </c>
       <c r="Q12"/>
       <c r="R12" t="s">
@@ -1255,31 +1237,31 @@
       </c>
       <c r="E13"/>
       <c r="F13" t="n">
-        <v>163369</v>
+        <v>61491</v>
       </c>
       <c r="G13" t="n">
-        <v>183109</v>
+        <v>63533</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="n">
-        <v>0.096500057296706</v>
+        <v>0.0363219767717973</v>
       </c>
       <c r="J13" t="n">
-        <v>0.108117124473833</v>
+        <v>0.0375132039888593</v>
       </c>
       <c r="K13"/>
       <c r="L13" t="n">
-        <v>3950.69249520638</v>
+        <v>1966.20010738162</v>
       </c>
       <c r="M13" t="n">
-        <v>4018.32785365925</v>
+        <v>2034.47598747196</v>
       </c>
       <c r="N13"/>
       <c r="O13" t="n">
-        <v>0.00229694001198138</v>
+        <v>0.00115178060555238</v>
       </c>
       <c r="P13" t="n">
-        <v>0.00232365553497308</v>
+        <v>0.00119086451254984</v>
       </c>
       <c r="Q13"/>
       <c r="R13" t="s">
@@ -1307,31 +1289,31 @@
       </c>
       <c r="E14"/>
       <c r="F14" t="n">
-        <v>23456</v>
+        <v>163369</v>
       </c>
       <c r="G14" t="n">
-        <v>27790</v>
+        <v>183109</v>
       </c>
       <c r="H14"/>
       <c r="I14" t="n">
-        <v>0.0138551704665606</v>
+        <v>0.096500057296706</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0164086685478476</v>
+        <v>0.108117124473833</v>
       </c>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>1811.76038841302</v>
+        <v>3950.69249520638</v>
       </c>
       <c r="M14" t="n">
-        <v>1913.19292066234</v>
+        <v>4018.32785365925</v>
       </c>
       <c r="N14"/>
       <c r="O14" t="n">
-        <v>0.00107010734625851</v>
+        <v>0.00229694001198138</v>
       </c>
       <c r="P14" t="n">
-        <v>0.00113208773789075</v>
+        <v>0.00232365553497308</v>
       </c>
       <c r="Q14"/>
       <c r="R14" t="s">
@@ -2217,31 +2199,31 @@
       </c>
       <c r="E29"/>
       <c r="F29" t="n">
-        <v>13533</v>
+        <v>11582</v>
       </c>
       <c r="G29" t="n">
-        <v>15056</v>
+        <v>13709</v>
       </c>
       <c r="H29"/>
       <c r="I29" t="n">
-        <v>0.0145916693891942</v>
+        <v>0.0124880451389675</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0162272679751806</v>
+        <v>0.0147754793219813</v>
       </c>
       <c r="K29"/>
       <c r="L29" t="n">
-        <v>1335.02407106951</v>
+        <v>1107.82072804222</v>
       </c>
       <c r="M29" t="n">
-        <v>1364.81145357747</v>
+        <v>1181.42000057822</v>
       </c>
       <c r="N29"/>
       <c r="O29" t="n">
-        <v>0.00143785802771884</v>
+        <v>0.00119152302320619</v>
       </c>
       <c r="P29" t="n">
-        <v>0.00147022685194038</v>
+        <v>0.00127325381042415</v>
       </c>
       <c r="Q29"/>
       <c r="R29" t="s">
@@ -2269,31 +2251,31 @@
       </c>
       <c r="E30"/>
       <c r="F30" t="n">
-        <v>39273</v>
+        <v>13533</v>
       </c>
       <c r="G30" t="n">
-        <v>40244</v>
+        <v>15056</v>
       </c>
       <c r="H30"/>
       <c r="I30" t="n">
-        <v>0.0423452768729642</v>
+        <v>0.0145916693891942</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0433747457753166</v>
+        <v>0.0162272679751806</v>
       </c>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>1771.28700679831</v>
+        <v>1335.02407106951</v>
       </c>
       <c r="M30" t="n">
-        <v>1790.42486926742</v>
+        <v>1364.81145357747</v>
       </c>
       <c r="N30"/>
       <c r="O30" t="n">
-        <v>0.00190451471816841</v>
+        <v>0.00143785802771884</v>
       </c>
       <c r="P30" t="n">
-        <v>0.00192221116600751</v>
+        <v>0.00147022685194038</v>
       </c>
       <c r="Q30"/>
       <c r="R30" t="s">
@@ -2321,31 +2303,31 @@
       </c>
       <c r="E31"/>
       <c r="F31" t="n">
-        <v>77201</v>
+        <v>39273</v>
       </c>
       <c r="G31" t="n">
-        <v>84635</v>
+        <v>40244</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="n">
-        <v>0.0832403361054594</v>
+        <v>0.0423452768729642</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0912191036848703</v>
+        <v>0.0433747457753166</v>
       </c>
       <c r="K31"/>
       <c r="L31" t="n">
-        <v>2657.22540683816</v>
+        <v>1771.28700679831</v>
       </c>
       <c r="M31" t="n">
-        <v>2717.66115672719</v>
+        <v>1790.42486926742</v>
       </c>
       <c r="N31"/>
       <c r="O31" t="n">
-        <v>0.00281601807005212</v>
+        <v>0.00190451471816841</v>
       </c>
       <c r="P31" t="n">
-        <v>0.00286490859375207</v>
+        <v>0.00192221116600751</v>
       </c>
       <c r="Q31"/>
       <c r="R31" t="s">
@@ -2373,31 +2355,31 @@
       </c>
       <c r="E32"/>
       <c r="F32" t="n">
-        <v>11582</v>
+        <v>77201</v>
       </c>
       <c r="G32" t="n">
-        <v>13709</v>
+        <v>84635</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="n">
-        <v>0.0124880451389675</v>
+        <v>0.0832403361054594</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0147754793219813</v>
+        <v>0.0912191036848703</v>
       </c>
       <c r="K32"/>
       <c r="L32" t="n">
-        <v>1107.82072804222</v>
+        <v>2657.22540683816</v>
       </c>
       <c r="M32" t="n">
-        <v>1181.42000057822</v>
+        <v>2717.66115672719</v>
       </c>
       <c r="N32"/>
       <c r="O32" t="n">
-        <v>0.00119152302320619</v>
+        <v>0.00281601807005212</v>
       </c>
       <c r="P32" t="n">
-        <v>0.00127325381042415</v>
+        <v>0.00286490859375207</v>
       </c>
       <c r="Q32"/>
       <c r="R32" t="s">
@@ -3283,38 +3265,38 @@
       </c>
       <c r="E47"/>
       <c r="F47" t="n">
-        <v>827</v>
+        <v>1732</v>
       </c>
       <c r="G47" t="n">
-        <v>955</v>
+        <v>1865</v>
       </c>
       <c r="H47"/>
       <c r="I47" t="n">
-        <v>0.007711387117228</v>
+        <v>0.0161500876505912</v>
       </c>
       <c r="J47" t="n">
-        <v>0.00890326670644391</v>
+        <v>0.0173870077565632</v>
       </c>
       <c r="K47"/>
       <c r="L47" t="n">
-        <v>235.454039628756</v>
+        <v>359.418195367527</v>
       </c>
       <c r="M47" t="n">
-        <v>250.379591760191</v>
+        <v>393.198359533709</v>
       </c>
       <c r="N47"/>
       <c r="O47" t="n">
-        <v>0.00219428842481887</v>
+        <v>0.00332130133186884</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0023322196498147</v>
+        <v>0.00364513007713715</v>
       </c>
       <c r="Q47"/>
       <c r="R47" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="S47" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="T47" t="s">
         <v>24</v>
@@ -3335,38 +3317,38 @@
       </c>
       <c r="E48"/>
       <c r="F48" t="n">
-        <v>3555</v>
+        <v>827</v>
       </c>
       <c r="G48" t="n">
-        <v>3614</v>
+        <v>955</v>
       </c>
       <c r="H48"/>
       <c r="I48" t="n">
-        <v>0.0331487076200067</v>
+        <v>0.007711387117228</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0336925715990453</v>
+        <v>0.00890326670644391</v>
       </c>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>571.953986130003</v>
+        <v>235.454039628756</v>
       </c>
       <c r="M48" t="n">
-        <v>572.490133905162</v>
+        <v>250.379591760191</v>
       </c>
       <c r="N48"/>
       <c r="O48" t="n">
-        <v>0.0053065608824604</v>
+        <v>0.00219428842481887</v>
       </c>
       <c r="P48" t="n">
-        <v>0.00530725248640065</v>
+        <v>0.0023322196498147</v>
       </c>
       <c r="Q48"/>
       <c r="R48" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="S48" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="T48" t="s">
         <v>24</v>
@@ -3387,31 +3369,31 @@
       </c>
       <c r="E49"/>
       <c r="F49" t="n">
-        <v>12497</v>
+        <v>3555</v>
       </c>
       <c r="G49" t="n">
-        <v>14359</v>
+        <v>3614</v>
       </c>
       <c r="H49"/>
       <c r="I49" t="n">
-        <v>0.116528663608221</v>
+        <v>0.0331487076200067</v>
       </c>
       <c r="J49" t="n">
-        <v>0.133865975536993</v>
+        <v>0.0336925715990453</v>
       </c>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>1003.70258357929</v>
+        <v>571.953986130003</v>
       </c>
       <c r="M49" t="n">
-        <v>1023.85426387865</v>
+        <v>572.490133905162</v>
       </c>
       <c r="N49"/>
       <c r="O49" t="n">
-        <v>0.00934354751967324</v>
+        <v>0.0053065608824604</v>
       </c>
       <c r="P49" t="n">
-        <v>0.00961169231239451</v>
+        <v>0.00530725248640065</v>
       </c>
       <c r="Q49"/>
       <c r="R49" t="s">
@@ -3439,31 +3421,31 @@
       </c>
       <c r="E50"/>
       <c r="F50" t="n">
-        <v>1732</v>
+        <v>12497</v>
       </c>
       <c r="G50" t="n">
-        <v>1865</v>
+        <v>14359</v>
       </c>
       <c r="H50"/>
       <c r="I50" t="n">
-        <v>0.0161500876505912</v>
+        <v>0.116528663608221</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0173870077565632</v>
+        <v>0.133865975536993</v>
       </c>
       <c r="K50"/>
       <c r="L50" t="n">
-        <v>359.418195367527</v>
+        <v>1003.70258357929</v>
       </c>
       <c r="M50" t="n">
-        <v>393.198359533709</v>
+        <v>1023.85426387865</v>
       </c>
       <c r="N50"/>
       <c r="O50" t="n">
-        <v>0.00332130133186884</v>
+        <v>0.00934354751967324</v>
       </c>
       <c r="P50" t="n">
-        <v>0.00364513007713715</v>
+        <v>0.00961169231239451</v>
       </c>
       <c r="Q50"/>
       <c r="R50" t="s">
@@ -4349,31 +4331,31 @@
       </c>
       <c r="E65"/>
       <c r="F65" t="n">
-        <v>5224</v>
+        <v>7173</v>
       </c>
       <c r="G65" t="n">
-        <v>5811</v>
+        <v>8729</v>
       </c>
       <c r="H65"/>
       <c r="I65" t="n">
-        <v>0.0150739993709548</v>
+        <v>0.0206978938529593</v>
       </c>
       <c r="J65" t="n">
-        <v>0.0167606466592636</v>
+        <v>0.0251770236944953</v>
       </c>
       <c r="K65"/>
       <c r="L65" t="n">
-        <v>553.909631223813</v>
+        <v>946.848410647792</v>
       </c>
       <c r="M65" t="n">
-        <v>629.768866114783</v>
+        <v>1079.52490498135</v>
       </c>
       <c r="N65"/>
       <c r="O65" t="n">
-        <v>0.00159176009522497</v>
+        <v>0.00272554315842261</v>
       </c>
       <c r="P65" t="n">
-        <v>0.00180700852021724</v>
+        <v>0.00310801432274483</v>
       </c>
       <c r="Q65"/>
       <c r="R65" t="s">
@@ -4401,31 +4383,31 @@
       </c>
       <c r="E66"/>
       <c r="F66" t="n">
-        <v>9704</v>
+        <v>5224</v>
       </c>
       <c r="G66" t="n">
-        <v>10102</v>
+        <v>5811</v>
       </c>
       <c r="H66"/>
       <c r="I66" t="n">
-        <v>0.028001165753397</v>
+        <v>0.0150739993709548</v>
       </c>
       <c r="J66" t="n">
-        <v>0.0291371627175841</v>
+        <v>0.0167606466592636</v>
       </c>
       <c r="K66"/>
       <c r="L66" t="n">
-        <v>771.324695348853</v>
+        <v>553.909631223813</v>
       </c>
       <c r="M66" t="n">
-        <v>807.664930448419</v>
+        <v>629.768866114783</v>
       </c>
       <c r="N66"/>
       <c r="O66" t="n">
-        <v>0.00223711883624133</v>
+        <v>0.00159176009522497</v>
       </c>
       <c r="P66" t="n">
-        <v>0.0023359173244843</v>
+        <v>0.00180700852021724</v>
       </c>
       <c r="Q66"/>
       <c r="R66" t="s">
@@ -4453,31 +4435,31 @@
       </c>
       <c r="E67"/>
       <c r="F67" t="n">
-        <v>43006</v>
+        <v>9704</v>
       </c>
       <c r="G67" t="n">
-        <v>48904</v>
+        <v>10102</v>
       </c>
       <c r="H67"/>
       <c r="I67" t="n">
-        <v>0.124095026215024</v>
+        <v>0.028001165753397</v>
       </c>
       <c r="J67" t="n">
-        <v>0.14105363349245</v>
+        <v>0.0291371627175841</v>
       </c>
       <c r="K67"/>
       <c r="L67" t="n">
-        <v>1834.90691585023</v>
+        <v>771.324695348853</v>
       </c>
       <c r="M67" t="n">
-        <v>2007.74719843473</v>
+        <v>807.664930448419</v>
       </c>
       <c r="N67"/>
       <c r="O67" t="n">
-        <v>0.00518093185314993</v>
+        <v>0.00223711883624133</v>
       </c>
       <c r="P67" t="n">
-        <v>0.00566937746654977</v>
+        <v>0.0023359173244843</v>
       </c>
       <c r="Q67"/>
       <c r="R67" t="s">
@@ -4505,31 +4487,31 @@
       </c>
       <c r="E68"/>
       <c r="F68" t="n">
-        <v>7173</v>
+        <v>43006</v>
       </c>
       <c r="G68" t="n">
-        <v>8729</v>
+        <v>48904</v>
       </c>
       <c r="H68"/>
       <c r="I68" t="n">
-        <v>0.0206978938529593</v>
+        <v>0.124095026215024</v>
       </c>
       <c r="J68" t="n">
-        <v>0.0251770236944953</v>
+        <v>0.14105363349245</v>
       </c>
       <c r="K68"/>
       <c r="L68" t="n">
-        <v>946.848410647792</v>
+        <v>1834.90691585023</v>
       </c>
       <c r="M68" t="n">
-        <v>1079.52490498135</v>
+        <v>2007.74719843473</v>
       </c>
       <c r="N68"/>
       <c r="O68" t="n">
-        <v>0.00272554315842261</v>
+        <v>0.00518093185314993</v>
       </c>
       <c r="P68" t="n">
-        <v>0.00310801432274483</v>
+        <v>0.00566937746654977</v>
       </c>
       <c r="Q68"/>
       <c r="R68" t="s">
@@ -5415,31 +5397,31 @@
       </c>
       <c r="E83"/>
       <c r="F83" t="n">
-        <v>3535</v>
+        <v>2969</v>
       </c>
       <c r="G83" t="n">
-        <v>3780</v>
+        <v>3487</v>
       </c>
       <c r="H83"/>
       <c r="I83" t="n">
-        <v>0.0113412513554961</v>
+        <v>0.00952536782870379</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0121221061678431</v>
+        <v>0.0111824825945155</v>
       </c>
       <c r="K83"/>
       <c r="L83" t="n">
-        <v>536.383901630865</v>
+        <v>544.079615725033</v>
       </c>
       <c r="M83" t="n">
-        <v>555.012858828514</v>
+        <v>590.429320540359</v>
       </c>
       <c r="N83"/>
       <c r="O83" t="n">
-        <v>0.00170724039677025</v>
+        <v>0.0017432406357891</v>
       </c>
       <c r="P83" t="n">
-        <v>0.00176637028323616</v>
+        <v>0.00189155722534411</v>
       </c>
       <c r="Q83"/>
       <c r="R83" t="s">
@@ -5467,31 +5449,31 @@
       </c>
       <c r="E84"/>
       <c r="F84" t="n">
-        <v>8959</v>
+        <v>3535</v>
       </c>
       <c r="G84" t="n">
-        <v>9573</v>
+        <v>3780</v>
       </c>
       <c r="H84"/>
       <c r="I84" t="n">
-        <v>0.0287429337747919</v>
+        <v>0.0113412513554961</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0306997149060216</v>
+        <v>0.0121221061678431</v>
       </c>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>813.276254668424</v>
+        <v>536.383901630865</v>
       </c>
       <c r="M84" t="n">
-        <v>867.445404866352</v>
+        <v>555.012858828514</v>
       </c>
       <c r="N84"/>
       <c r="O84" t="n">
-        <v>0.00260024263504263</v>
+        <v>0.00170724039677025</v>
       </c>
       <c r="P84" t="n">
-        <v>0.00277735731662086</v>
+        <v>0.00176637028323616</v>
       </c>
       <c r="Q84"/>
       <c r="R84" t="s">
@@ -5519,31 +5501,31 @@
       </c>
       <c r="E85"/>
       <c r="F85" t="n">
-        <v>30665</v>
+        <v>8959</v>
       </c>
       <c r="G85" t="n">
-        <v>35211</v>
+        <v>9573</v>
       </c>
       <c r="H85"/>
       <c r="I85" t="n">
-        <v>0.0983817461997985</v>
+        <v>0.0287429337747919</v>
       </c>
       <c r="J85" t="n">
-        <v>0.112918381025376</v>
+        <v>0.0306997149060216</v>
       </c>
       <c r="K85"/>
       <c r="L85" t="n">
-        <v>1367.35681252737</v>
+        <v>813.276254668424</v>
       </c>
       <c r="M85" t="n">
-        <v>1551.13033050901</v>
+        <v>867.445404866352</v>
       </c>
       <c r="N85"/>
       <c r="O85" t="n">
-        <v>0.00436747080052358</v>
+        <v>0.00260024263504263</v>
       </c>
       <c r="P85" t="n">
-        <v>0.00495221128709147</v>
+        <v>0.00277735731662086</v>
       </c>
       <c r="Q85"/>
       <c r="R85" t="s">
@@ -5571,31 +5553,31 @@
       </c>
       <c r="E86"/>
       <c r="F86" t="n">
-        <v>2969</v>
+        <v>30665</v>
       </c>
       <c r="G86" t="n">
-        <v>3487</v>
+        <v>35211</v>
       </c>
       <c r="H86"/>
       <c r="I86" t="n">
-        <v>0.00952536782870379</v>
+        <v>0.0983817461997985</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0111824825945155</v>
+        <v>0.112918381025376</v>
       </c>
       <c r="K86"/>
       <c r="L86" t="n">
-        <v>544.079615725033</v>
+        <v>1367.35681252737</v>
       </c>
       <c r="M86" t="n">
-        <v>590.429320540359</v>
+        <v>1551.13033050901</v>
       </c>
       <c r="N86"/>
       <c r="O86" t="n">
-        <v>0.0017432406357891</v>
+        <v>0.00436747080052358</v>
       </c>
       <c r="P86" t="n">
-        <v>0.00189155722534411</v>
+        <v>0.00495221128709147</v>
       </c>
       <c r="Q86"/>
       <c r="R86" t="s">
@@ -6550,38 +6532,38 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>47</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
-        <v>224860</v>
+        <v>46575</v>
       </c>
       <c r="G11" t="n">
-        <v>246642</v>
+        <v>53392</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>0.132822034068503</v>
+        <v>0.0275112791814486</v>
       </c>
       <c r="J11" t="n">
-        <v>0.145630328462693</v>
+        <v>0.0315254275317265</v>
       </c>
       <c r="K11"/>
       <c r="L11" t="n">
-        <v>4220.63523218869</v>
+        <v>2299.15009645113</v>
       </c>
       <c r="M11" t="n">
-        <v>4454.835628231</v>
+        <v>2647.8644532054</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>0.00243025787054593</v>
+        <v>0.00135463371795602</v>
       </c>
       <c r="P11" t="n">
-        <v>0.00255306067726476</v>
+        <v>0.00156325020696514</v>
       </c>
       <c r="Q11"/>
       <c r="R11" t="s">
@@ -6602,38 +6584,38 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
-        <v>46575</v>
+        <v>224860</v>
       </c>
       <c r="G12" t="n">
-        <v>53392</v>
+        <v>246642</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="n">
-        <v>0.0275112791814486</v>
+        <v>0.132822034068503</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0315254275317265</v>
+        <v>0.145630328462693</v>
       </c>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>2299.15009645113</v>
+        <v>4220.63523218869</v>
       </c>
       <c r="M12" t="n">
-        <v>2647.8644532054</v>
+        <v>4454.835628231</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>0.00135463371795602</v>
+        <v>0.00243025787054593</v>
       </c>
       <c r="P12" t="n">
-        <v>0.00156325020696514</v>
+        <v>0.00255306067726476</v>
       </c>
       <c r="Q12"/>
       <c r="R12" t="s">
@@ -7512,38 +7494,38 @@
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
         <v>47</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="n">
-        <v>116474</v>
+        <v>25115</v>
       </c>
       <c r="G27" t="n">
-        <v>124879</v>
+        <v>28765</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="n">
-        <v>0.125585612978424</v>
+        <v>0.0270797145281617</v>
       </c>
       <c r="J27" t="n">
-        <v>0.134593849460187</v>
+        <v>0.0310027472971618</v>
       </c>
       <c r="K27"/>
       <c r="L27" t="n">
-        <v>2983.36056679271</v>
+        <v>1581.22351009669</v>
       </c>
       <c r="M27" t="n">
-        <v>3205.36559316211</v>
+        <v>1645.90861156536</v>
       </c>
       <c r="N27"/>
       <c r="O27" t="n">
-        <v>0.00314295760129551</v>
+        <v>0.00169890603218318</v>
       </c>
       <c r="P27" t="n">
-        <v>0.00336244106040137</v>
+        <v>0.00177372637530163</v>
       </c>
       <c r="Q27"/>
       <c r="R27" t="s">
@@ -7564,38 +7546,38 @@
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
         <v>47</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="n">
-        <v>25115</v>
+        <v>116474</v>
       </c>
       <c r="G28" t="n">
-        <v>28765</v>
+        <v>124879</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="n">
-        <v>0.0270797145281617</v>
+        <v>0.125585612978424</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0310027472971618</v>
+        <v>0.134593849460187</v>
       </c>
       <c r="K28"/>
       <c r="L28" t="n">
-        <v>1581.22351009669</v>
+        <v>2983.36056679271</v>
       </c>
       <c r="M28" t="n">
-        <v>1645.90861156536</v>
+        <v>3205.36559316211</v>
       </c>
       <c r="N28"/>
       <c r="O28" t="n">
-        <v>0.00169890603218318</v>
+        <v>0.00314295760129551</v>
       </c>
       <c r="P28" t="n">
-        <v>0.00177372637530163</v>
+        <v>0.00336244106040137</v>
       </c>
       <c r="Q28"/>
       <c r="R28" t="s">
@@ -8474,38 +8456,38 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
         <v>47</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="n">
-        <v>16052</v>
+        <v>2559</v>
       </c>
       <c r="G43" t="n">
-        <v>17973</v>
+        <v>2820</v>
       </c>
       <c r="H43"/>
       <c r="I43" t="n">
-        <v>0.149677371228227</v>
+        <v>0.0238614747678192</v>
       </c>
       <c r="J43" t="n">
-        <v>0.167558547136038</v>
+        <v>0.0262902744630072</v>
       </c>
       <c r="K43"/>
       <c r="L43" t="n">
-        <v>1130.54705914825</v>
+        <v>380.350004625674</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.32559589998</v>
+        <v>404.504128606866</v>
       </c>
       <c r="N43"/>
       <c r="O43" t="n">
-        <v>0.0104688735361444</v>
+        <v>0.00350123423815728</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0102851989233051</v>
+        <v>0.0037369631267383</v>
       </c>
       <c r="Q43"/>
       <c r="R43" t="s">
@@ -8526,38 +8508,38 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
         <v>47</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="n">
-        <v>2559</v>
+        <v>16052</v>
       </c>
       <c r="G44" t="n">
-        <v>2820</v>
+        <v>17973</v>
       </c>
       <c r="H44"/>
       <c r="I44" t="n">
-        <v>0.0238614747678192</v>
+        <v>0.149677371228227</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0262902744630072</v>
+        <v>0.167558547136038</v>
       </c>
       <c r="K44"/>
       <c r="L44" t="n">
-        <v>380.350004625674</v>
+        <v>1130.54705914825</v>
       </c>
       <c r="M44" t="n">
-        <v>404.504128606866</v>
+        <v>1102.32559589998</v>
       </c>
       <c r="N44"/>
       <c r="O44" t="n">
-        <v>0.00350123423815728</v>
+        <v>0.0104688735361444</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0037369631267383</v>
+        <v>0.0102851989233051</v>
       </c>
       <c r="Q44"/>
       <c r="R44" t="s">
@@ -9436,38 +9418,38 @@
         <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D59" t="s">
         <v>47</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="n">
-        <v>52710</v>
+        <v>12397</v>
       </c>
       <c r="G59" t="n">
-        <v>59006</v>
+        <v>14540</v>
       </c>
       <c r="H59"/>
       <c r="I59" t="n">
-        <v>0.152096191968421</v>
+        <v>0.0357718932239141</v>
       </c>
       <c r="J59" t="n">
-        <v>0.170190796210034</v>
+        <v>0.041937670353759</v>
       </c>
       <c r="K59"/>
       <c r="L59" t="n">
-        <v>1870.30032737793</v>
+        <v>1142.43959099978</v>
       </c>
       <c r="M59" t="n">
-        <v>2013.58022289373</v>
+        <v>1326.54823595676</v>
       </c>
       <c r="N59"/>
       <c r="O59" t="n">
-        <v>0.00528717516893605</v>
+        <v>0.00328052250922274</v>
       </c>
       <c r="P59" t="n">
-        <v>0.00567836849973877</v>
+        <v>0.00380809861451659</v>
       </c>
       <c r="Q59"/>
       <c r="R59" t="s">
@@ -9488,38 +9470,38 @@
         <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D60" t="s">
         <v>47</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="n">
-        <v>12397</v>
+        <v>52710</v>
       </c>
       <c r="G60" t="n">
-        <v>14540</v>
+        <v>59006</v>
       </c>
       <c r="H60"/>
       <c r="I60" t="n">
-        <v>0.0357718932239141</v>
+        <v>0.152096191968421</v>
       </c>
       <c r="J60" t="n">
-        <v>0.041937670353759</v>
+        <v>0.170190796210034</v>
       </c>
       <c r="K60"/>
       <c r="L60" t="n">
-        <v>1142.43959099978</v>
+        <v>1870.30032737793</v>
       </c>
       <c r="M60" t="n">
-        <v>1326.54823595676</v>
+        <v>2013.58022289373</v>
       </c>
       <c r="N60"/>
       <c r="O60" t="n">
-        <v>0.00328052250922274</v>
+        <v>0.00528717516893605</v>
       </c>
       <c r="P60" t="n">
-        <v>0.00380809861451659</v>
+        <v>0.00567836849973877</v>
       </c>
       <c r="Q60"/>
       <c r="R60" t="s">
@@ -10398,38 +10380,38 @@
         <v>46</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D75" t="s">
         <v>47</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="n">
-        <v>39624</v>
+        <v>6504</v>
       </c>
       <c r="G75" t="n">
-        <v>44784</v>
+        <v>7267</v>
       </c>
       <c r="H75"/>
       <c r="I75" t="n">
-        <v>0.12712467997459</v>
+        <v>0.0208666191841999</v>
       </c>
       <c r="J75" t="n">
-        <v>0.143618095931398</v>
+        <v>0.0233045887623586</v>
       </c>
       <c r="K75"/>
       <c r="L75" t="n">
-        <v>1582.754340708</v>
+        <v>753.086767179752</v>
       </c>
       <c r="M75" t="n">
-        <v>1820.69529657457</v>
+        <v>822.947564978322</v>
       </c>
       <c r="N75"/>
       <c r="O75" t="n">
-        <v>0.00503717525362526</v>
+        <v>0.00239553272094262</v>
       </c>
       <c r="P75" t="n">
-        <v>0.00580691239689601</v>
+        <v>0.00261933720387197</v>
       </c>
       <c r="Q75"/>
       <c r="R75" t="s">
@@ -10450,38 +10432,38 @@
         <v>46</v>
       </c>
       <c r="C76" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D76" t="s">
         <v>47</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="n">
-        <v>6504</v>
+        <v>39624</v>
       </c>
       <c r="G76" t="n">
-        <v>7267</v>
+        <v>44784</v>
       </c>
       <c r="H76"/>
       <c r="I76" t="n">
-        <v>0.0208666191841999</v>
+        <v>0.12712467997459</v>
       </c>
       <c r="J76" t="n">
-        <v>0.0233045887623586</v>
+        <v>0.143618095931398</v>
       </c>
       <c r="K76"/>
       <c r="L76" t="n">
-        <v>753.086767179752</v>
+        <v>1582.754340708</v>
       </c>
       <c r="M76" t="n">
-        <v>822.947564978322</v>
+        <v>1820.69529657457</v>
       </c>
       <c r="N76"/>
       <c r="O76" t="n">
-        <v>0.00239553272094262</v>
+        <v>0.00503717525362526</v>
       </c>
       <c r="P76" t="n">
-        <v>0.00261933720387197</v>
+        <v>0.00580691239689601</v>
       </c>
       <c r="Q76"/>
       <c r="R76" t="s">
@@ -10878,10 +10860,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>8266</v>
@@ -10940,10 +10922,10 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="n">
         <v>234407</v>
@@ -11002,10 +10984,10 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="n">
         <v>89808</v>
@@ -11067,7 +11049,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="n">
         <v>137815</v>
@@ -11126,10 +11108,10 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="n">
         <v>10391</v>
@@ -11188,10 +11170,10 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="n">
         <v>8707</v>
@@ -11253,7 +11235,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="n">
         <v>93474</v>
@@ -11312,10 +11294,10 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" t="n">
         <v>1110749</v>
@@ -11377,7 +11359,7 @@
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" t="n">
         <v>1693617</v>
@@ -11436,10 +11418,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
@@ -11491,7 +11473,7 @@
         <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" t="n">
         <v>93474</v>
@@ -11553,7 +11535,7 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="n">
         <v>1600143</v>
@@ -11615,7 +11597,7 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="n">
@@ -11667,7 +11649,7 @@
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" t="n">
         <v>1693617</v>
@@ -11729,7 +11711,7 @@
         <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" t="n">
         <v>582868</v>
@@ -11788,10 +11770,10 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
         <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
       </c>
       <c r="E17" t="n">
         <v>3157</v>
@@ -11850,10 +11832,10 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" t="n">
         <v>173743</v>
@@ -11912,10 +11894,10 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" t="n">
         <v>54290</v>
@@ -11977,7 +11959,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" t="n">
         <v>74084</v>
@@ -12036,10 +12018,10 @@
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" t="n">
         <v>5077</v>
@@ -12098,10 +12080,10 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" t="n">
         <v>4479</v>
@@ -12163,7 +12145,7 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" t="n">
         <v>49477</v>
@@ -12222,10 +12204,10 @@
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" t="n">
         <v>563514</v>
@@ -12287,7 +12269,7 @@
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" t="n">
         <v>927821</v>
@@ -12346,10 +12328,10 @@
         <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="n">
@@ -12401,7 +12383,7 @@
         <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" t="n">
         <v>49477</v>
@@ -12463,7 +12445,7 @@
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" t="n">
         <v>878344</v>
@@ -12525,7 +12507,7 @@
         <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="n">
@@ -12577,7 +12559,7 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" t="n">
         <v>927821</v>
@@ -12639,7 +12621,7 @@
         <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" t="n">
         <v>364307</v>
@@ -12698,10 +12680,10 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
         <v>49</v>
-      </c>
-      <c r="D32" t="s">
-        <v>50</v>
       </c>
       <c r="E32" t="n">
         <v>932</v>
@@ -12760,10 +12742,10 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33" t="n">
         <v>4223</v>
@@ -12822,10 +12804,10 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E34" t="n">
         <v>2551</v>
@@ -12887,7 +12869,7 @@
         <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" t="n">
         <v>7211</v>
@@ -12946,10 +12928,10 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E36" t="n">
         <v>763</v>
@@ -13008,10 +12990,10 @@
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37" t="n">
         <v>733</v>
@@ -13073,7 +13055,7 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E38" t="n">
         <v>5753</v>
@@ -13132,10 +13114,10 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E39" t="n">
         <v>85098</v>
@@ -13197,7 +13179,7 @@
         <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40" t="n">
         <v>107264</v>
@@ -13256,10 +13238,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="n">
@@ -13311,7 +13293,7 @@
         <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E42" t="n">
         <v>5753</v>
@@ -13373,7 +13355,7 @@
         <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E43" t="n">
         <v>101511</v>
@@ -13435,7 +13417,7 @@
         <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="n">
@@ -13487,7 +13469,7 @@
         <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E45" t="n">
         <v>107264</v>
@@ -13549,7 +13531,7 @@
         <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E46" t="n">
         <v>22166</v>
@@ -13608,10 +13590,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s">
         <v>49</v>
-      </c>
-      <c r="D47" t="s">
-        <v>50</v>
       </c>
       <c r="E47" t="n">
         <v>2415</v>
@@ -13670,10 +13652,10 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E48" t="n">
         <v>20777</v>
@@ -13732,10 +13714,10 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E49" t="n">
         <v>22812</v>
@@ -13797,7 +13779,7 @@
         <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E50" t="n">
         <v>31649</v>
@@ -13856,10 +13838,10 @@
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E51" t="n">
         <v>3668</v>
@@ -13918,10 +13900,10 @@
         <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E52" t="n">
         <v>1660</v>
@@ -13983,7 +13965,7 @@
         <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E53" t="n">
         <v>23945</v>
@@ -14042,10 +14024,10 @@
         <v>45</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E54" t="n">
         <v>239779</v>
@@ -14107,7 +14089,7 @@
         <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E55" t="n">
         <v>346705</v>
@@ -14166,10 +14148,10 @@
         <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="n">
@@ -14221,7 +14203,7 @@
         <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E57" t="n">
         <v>23945</v>
@@ -14283,7 +14265,7 @@
         <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E58" t="n">
         <v>322760</v>
@@ -14345,7 +14327,7 @@
         <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="n">
@@ -14397,7 +14379,7 @@
         <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E60" t="n">
         <v>346705</v>
@@ -14459,7 +14441,7 @@
         <v>41</v>
       </c>
       <c r="D61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E61" t="n">
         <v>106926</v>
@@ -14518,10 +14500,10 @@
         <v>46</v>
       </c>
       <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
         <v>49</v>
-      </c>
-      <c r="D62" t="s">
-        <v>50</v>
       </c>
       <c r="E62" t="n">
         <v>1762</v>
@@ -14580,10 +14562,10 @@
         <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E63" t="n">
         <v>35664</v>
@@ -14642,10 +14624,10 @@
         <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E64" t="n">
         <v>10155</v>
@@ -14707,7 +14689,7 @@
         <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E65" t="n">
         <v>24871</v>
@@ -14766,10 +14748,10 @@
         <v>46</v>
       </c>
       <c r="C66" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E66" t="n">
         <v>883</v>
@@ -14828,10 +14810,10 @@
         <v>46</v>
       </c>
       <c r="C67" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E67" t="n">
         <v>1835</v>
@@ -14893,7 +14875,7 @@
         <v>30</v>
       </c>
       <c r="D68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E68" t="n">
         <v>14299</v>
@@ -14952,10 +14934,10 @@
         <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E69" t="n">
         <v>222358</v>
@@ -15017,7 +14999,7 @@
         <v>32</v>
       </c>
       <c r="D70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E70" t="n">
         <v>311827</v>
@@ -15076,10 +15058,10 @@
         <v>46</v>
       </c>
       <c r="C71" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="n">
@@ -15131,7 +15113,7 @@
         <v>37</v>
       </c>
       <c r="D72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E72" t="n">
         <v>14299</v>
@@ -15193,7 +15175,7 @@
         <v>38</v>
       </c>
       <c r="D73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E73" t="n">
         <v>297528</v>
@@ -15255,7 +15237,7 @@
         <v>39</v>
       </c>
       <c r="D74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="n">
@@ -15307,7 +15289,7 @@
         <v>40</v>
       </c>
       <c r="D75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E75" t="n">
         <v>311827</v>
@@ -15369,7 +15351,7 @@
         <v>41</v>
       </c>
       <c r="D76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E76" t="n">
         <v>89469</v>
